--- a/Data/LLM result/LLM_generate_strings/DeepSeek/DeepSeek  with EGRET/output_D.xlsx
+++ b/Data/LLM result/LLM_generate_strings/DeepSeek/DeepSeek  with EGRET/output_D.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>regex</t>
+          <t>Regex</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>positive example:[, aababa, aabababa, aba, abaababa, ababaaba, ababab, abababa, abababaa, abababababa, ababba, abbaba, abbababa, bababa],negative example:[]</t>
+          <t>positive example: [, aababa, aabababa, aba, abaababa, ababaaba, ababab, abababa, abababaa, abababababa, ababba, abbaba, abbababa, bababa], negative example: [b, ba, baa, baaa, babaab, babb, bb, bba, bbaa, bbab, bbb, bbbab]</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>positive example:[001, 1010, 10101, 110],negative example:[]</t>
+          <t>positive example:[001, 1010, 10101, 110], negative example:[000, 111, 0101, 1001]</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11"], negative example:["01", "10", "010", "101"]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aababa, abab, ababa, ababaa, ababaababa, ababb, ababbaba, baba, bbaba], negative example: []</t>
+          <t>positive example: [, aa, aababa, abab, ababa, ababaa, ababaababa, ababb, ababbaba, baba, bbaba], negative example: [baa, bbaa, aabba, abbaa, bbaab, aabbaa, babaab, bbaaba, aabbaab, abbaaba]</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>positive example:["", "aa", "aabbaa", "aabbaabbaa", "ab", "abaa", "abaaaa", "abab", "ababaa", "abba", "abbb", "baaa", "bbaaaa"],negative example:[]</t>
+          <t>positive example: [, aa, aabbaa, aabbaabbaa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa, bbaaaa], negative example: [a, b, aba, abb, baa, bab, bba, aaaab, abababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababab</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[c]</t>
+          <t>positive example:[, a, aa, b], negative example:[ab, ba, bb, aab]</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>positive example:[001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 01110, 1, 1010, 11010],negative example:[]</t>
+          <t>positive example:[001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 01110, 1, 1010, 11010],negative example:[000, 0000, 00000, 000000, 00100, 001000, 010000, 100, 1000, 10000, 1100, 11100]</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "0010", "01", "010", "0100", "01010", "0110", "1", "10", "1001", "101", "10101", "1011", "11", "1101"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "0010", "01", "010", "0100", "01010", "0110", "1", "10", "1001", "101", "10101", "1011", "11", "1101"], negative example:["2", "012", "102", "120", "021", "201", "210", "0002", "1112", "0102", "1010a", "b", "c01", "1d", "e"]</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 0001010, 0010010, 00101, 001010, 0010100, 00101001010, 0010110, 00110, 0011010, 01010],negative example:[00010, 00100]</t>
+          <t>positive example: [, 0, 0001010, 0010010, 00101, 001010, 0010100, 00101001010, 0010110, 00110, 0011010, 01010], negative example: [00010, 00100]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>positive example:[, aabbabab, ab, abaaabbabab, abaabbabab, abaabbababaabbabab, abaabbabbab, abaabbbabab, ababaabbabab, baaabbabab],negative example:[abaababab, abaabbaab, ababbabab]</t>
+          <t>positive example: [, aabbabab, ab, abaaabbabab, abaabbabab, abaabbababaabbabab, abaabbabbab, abaabbbabab, ababaabbabab, baaabbabab], negative example: [abaababab, abaabbaab, ababbabab]</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ab, aba, abaa, ababa, ba, baa],negative example:[]</t>
+          <t>positive example: [, a, aa, ab, aba, abaa, ababa, ba, baa], negative example: [b, bb, bab, bba, ababab, baaaab]</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa, baaaa, bbaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa, baaaa, bbaaa, bbaaaa],negative example:[aa, ab, ba, bb, aab, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, ab, b, ba, baa, bba],negative example:[ac]</t>
+          <t>positive example: [, a, aa, aaa, ab, b, ba, baa, bba], negative example: [c, ac, bb, abc, aab, abb, bbb, aabb]</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, b, ab, ba, aab, bba, abab], negative example:[c, ac, bc, abc, aac, bbca]</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, baaa, bbaaa],negative example:[aaa]</t>
+          <t>positive example: [aaaa, aaaaa, baaa, bbaaa], negative example: [aaa]</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, abaaa, abbaaa, baaa, baaaa, baaaaa, bbaaa, bbbaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, abaaa, abbaaa, baaa, baaaa, baaaaa, bbaaa, bbbaaa], negative example: [aa, bb, ab, ba, a, b, abab, baba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, ab, ba, baba],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, ab, ba, baba], negative example: [c, ac, abc, baaab, bbac]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aabbaa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [, aa, aabbaa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa, bbaaaa], negative example: [a, b, aab, aba, abb, baa, bab, bba, aaaab, ababa, bbbab]</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive example:[aabababa, aba, abaababa, ababaa, ababaaba, ababab, abababa, abababaa, abababababa, abababba, ababba, abbaba, b, bababa],negative example:[]</t>
+          <t>positive example:[aabababa, aba, abaababa, ababaa, ababaaba, ababab, abababa, abababaa, abababababa, abababba, ababba, abbaba, b, bababa],negative example:[aa, a, ab, ba, baa, bb, bbb, abbaa, abbb, aabba, aabbb]</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>positive example:[, a, aabbaa, abba, abbaa, abbaaa, abbaabbaa, abbba, bbaa, bbbaa],negative example:[]</t>
+          <t>positive example: [, a, aabbaa, abba, abbaa, abbaaa, abbaabbaa, abbba, bbaa, bbbaa], negative example: [b, ab, aba, abab, ababab, baba, babab, babb, bbb, bbbab]</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, baa, bbaa],negative example:[]</t>
+          <t>positive example:[, a, aa, baa, bbaa], negative example:[b, ab, aba, bb, baba]</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaaa, aaba, ab, aba, abaa, ababa, abba, ba],negative example:[]</t>
+          <t>positive example: [, a, aa, aaaa, aaba, ab, aba, abaa, ababa, abba, ba], negative example: [b, bb, aab, baa, baaa, bab, baba, babb, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aab, aaba, aabaaaba, aba, baba],negative example:[]</t>
+          <t>positive example:[, aaaba, aab, aaba, aabaaaba, aba, baba],negative example:[aa, ab, ba, bb, aaa, bbb, aabab]</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 000, 01, 10],negative example:[]</t>
+          <t>positive example:["", "0", "00", "000", "01", "10"], negative example:["2", "a", "11", "101", "010", "0011"]</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>positive example:[0010110, 01010, 01010110, 01011, 010110, 0101100, 0101110, 0110, 1, 10110],negative example:[]</t>
+          <t>positive example:[0010110, 01010, 01010110, 01011, 010110, 0101100, 0101110, 0110, 1, 10110],negative example:[000, 111, 0100, 10101, 0111, 1001, 1100, 0011, 01001, 10100]</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>positive example:[, #, #/, /, /#, a, b], negative example:[//]</t>
+          <t>positive example:[, #, #/, /, /#, a, b], negative example:[aa, bb, ab, ba, /a, /b, a/, b/, ##, //]</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaba, ab, aba, abaa, abb, abba, ba],negative example:[]</t>
+          <t>positive example:[, aa, aaba, ab, aba, abaa, abb, abba, ba], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>positive example:[, aababb, aba, abaabb, ababb, ababbababb, ababbbb, abbb, babb],negative example:[]</t>
+          <t>positive example: [, aababb, aba, abaabb, ababb, ababbababb, ababbbb, abbb, babb], negative example: [aa, aaa, bb, bbb, a, b, abab, ba, baba]</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa, bbaaa], negative example:[aa, bb, aab, aba, baba]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 0000, 010, 1, 1001, 101, 11, 111], negative example: []</t>
+          <t>positive example:["", "0", "00", "000", "0000", "010", "1", "1001", "101", "11", "111"], negative example:["01", "10", "001", "011", "100", "110", "0101", "1010"]</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, aaaba, aab, aaba, aabaa, aabba, aba],negative example:[]</t>
+          <t>positive example: [, aaa, aaaba, aab, aaba, aabaa, aabba, aba], negative example: [b, abab, baa, bb, aabab, abba, baaa]</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>positive example:[, aaba, ab, aba, abaa, abaaba, ba],negative example:[]</t>
+          <t>positive example:[, aaba, ab, aba, abaa, abaaba, ba], negative example:[aa, aab, bba, bb, bab, aabbaa]</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa], negative example:[a, b, aa, ab, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abaaba, b, ba],negative example:[]</t>
+          <t>positive example: [aaba, ab, aba, abaa, abaaba, b, ba], negative example: [aa, a, aab, baa, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>positive example:["", "00101", "010", "01001", "0101", "01010101", "01011", "011", "101"],negative example:[]</t>
+          <t>positive example:[, 00101, 010, 01001, 0101, 01010101, 01011, 011, 101], negative example:[0, 1, 00, 11, 000, 111, 0011, 1100, 0110]</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba],negative example:[]</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba], negative example: [ba, bb, aaa, baa, abab, bba, aabb, baaa, abaa, bbbb]</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, aaaa, aaaaa, aaaaaaaa, aaab, abaa],negative example:[]</t>
+          <t>positive example: [, aaa, aaaa, aaaaa, aaaaaaaa, aaab, abaa], negative example: [a, b, aa, ab, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aaaaaa, aabb, aabbbb, ab, abab, ba, baab, baabab, baba, bb, bbaa, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, aaaaaa, aabb, aabbbb, ab, abab, ba, baab, baabab, baba, bb, bbaa, bbbbaa], negative example: [a, b, aba, abb, baa, bab, aaa, bbb, aab, bba, abba, babb, aaab, bbba]</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>positive example:[, aab, aabab, ab, abaa, abab, ababab, abba, abbab, bab],negative example:[]</t>
+          <t>positive example: [, aab, aabab, ab, abaa, abab, ababab, abba, abbab, bab], negative example: [b, baab, baba, bba, bbb, aaabb, aabba, abbb, baaa, babb]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>positive example:[aabaaab, abaaaab, abaaab, abaab, abaabb, baaab, bab, bbaaab],negative example:[]</t>
+          <t>positive example:[aabaaab, abaaaab, abaaab, abaab, abaabb, baaab, bab, bbaaab], negative example:[a, b, aa, bb, abab, baba, aabb, bbba]</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,8 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0000, 00010100, 001010, 0010100, 00101000, 00101000010100, 0010101, 0010110100, 001100, 0011001100, 010010, 0100110010, 010100, 0101001010, 0101010, 0110, 1010100],negative example:[]</t>
+          <t>positive example: [, 00, 0000, 00010100, 001010, 0010100, 00101000, 00101000010100, 0010101, 0010110100, 001100, 0011001100, 010010, 0100110010, 010100, 0101001010, 0101010, 0110, 1010100],  
+negative example: [0, 1, 01, 10, 000, 111, 001, 010, 100, 110, 011, 101, 0001, 0010, 0100, 1000, 1100, 0011, 0111, 1010]</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1212,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, baaa],negative example:[aaa]</t>
+          <t>positive example:[aaaa, aaaaa, baaa], negative example:[aaa]</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1229,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>positive example:[aabab, abaab, abab, ababab, ababb, abbab, bab],negative example:[aab, ab, aba, abb]</t>
+          <t>positive example:[aabab, abaab, abab, ababab, ababb, abbab, bab],negative example:[aab,ab,aba,abb]</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1246,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, baaab, baab, bab, bb],negative example:[]</t>
+          <t>positive example:[aab, ab, b, baaab, baab, bab, bb],negative example:[aa, ba, baaa, a, baabb, baba, bba]</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1263,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaba, ab, aba, abaa, abaaba, abba, abbba, ba],negative example:[]</t>
+          <t>positive example: [, aa, aaba, ab, aba, abaa, abaaba, abba, abbba, ba], negative example: [abbab, bbb, aabbbaa, ababab, baba, aababbaa, bab, aab, b, bb]</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1280,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 000, 01],negative example:[]</t>
+          <t>positive example:["", "0", "00", "000", "01"], negative example:["2", "10", "11", "101", "0011"]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>positive example:["", "0010", "01", "010", "0100", "010010", "011", "1", "10", "11", "110"],negative example:[]</t>
+          <t>positive example:[, 0010, 01, 010, 0100, 010010, 011, 1, 10, 11, 110], negative example:[0, 00, 000, 0000, 00000, 000000, 0000000, 00000000, 000000000, 0000000000]</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1314,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "000", "01", "1", "10"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 000, 01, 1, 10],negative example:[]</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1331,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>positive example:[0, 000, 00010, 001, 0010, 00100, 0010010, 00110, 010],negative example:[]</t>
+          <t>positive example:[0, 000, 00010, 001, 0010, 00100, 0010010, 00110, 010],negative example:[1, 01, 011, 0110, 101, 1001, 110, 111, 00011]</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1348,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, aaaaa, aaab, abaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, aaaaa, aaab, abaa], negative example:[a, b, ab, ba, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1365,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 0010, 01, 010, 0100, 010010, 0101, 0110, 10, 1001, 100101, 1010, 101001, 10100101, 10101, 101011, 1011, 101101, 11, 1101, 110101],negative example: []</t>
+          <t>positive example: [, 00, 0010, 01, 010, 0100, 010010, 0101, 0110, 10, 1001, 100101, 1010, 101001, 10100101, 10101, 101011, 1011, 101101, 11, 1101, 110101], negative example: [0, 1, 000, 011, 111, 0101, 101, 110, 1110, 0001, 0011, 0111, 1000, 1100, 1111, 01010, 10110, 11011, 11100, 00000, 00100, 01101]</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1382,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, b, ab, ba, aab, bba, aaa, bbb], negative example:[c, ac, bc, abc, a1, 1a, @, a@b]</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1399,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abab, ba, bb],negative example:[]</t>
+          <t>positive example:[, ab, abab, ba, bb], negative example:[a, b, aa, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1433,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa], negative example:[a, b, aa, ab, ba, bb, aaa, aba, abb, baa, bab, bba, bbb, aaba, abab, baba, babb]</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1450,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaaba, aab, aaba, aabaab, ab, aba, bab],negative example:[]</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaab, ab, aba, bab], negative example: [baa, baaa, bba, bbb, aaaab, aabaa, abaa, abba]</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1467,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "01", "10", "1001", "101", "1011", "11", "1101"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "01", "10", "1001", "101", "1011", "11", "1101"], negative example:["2", "012", "102", "1102", "a", "b01", "1a0", "01b", "10a1", "101b1"]</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1484,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aabba, abb, abba, abbaa, abbb, bb, bba, bbba],negative example:[]</t>
+          <t>positive example: [, a, aa, aabba, abb, abba, abbaa, abbb, bb, bba, bbba], negative example: [ab, aba, abab, b, ba, bab, baba]</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1501,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000, 01],negative example:[]</t>
+          <t>positive example:[0, 00, 000, 01],negative example:[1, 10, 11, 0011]</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1518,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 0000, 00000, 010, 1, 1001, 101, 10101, 101101, 11, 111], negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 0000, 00000, 010, 1, 1001, 101, 10101, 101101, 11, 111], negative example: [01, 10, 011, 110, 0101, 1010, 0011, 1100]</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1552,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aabba, aba, abb, abba, abbaa, abbaabba, abbba, abbbba, bba], negative example: []</t>
+          <t>positive example: [, aa, aabba, aba, abb, abba, abbaa, abbaabba, abbba, abbbba, bba], negative example: [abab, aabab, baba, babab, aab, babb, ababba, aaba, ababab, baab]</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1569,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa], negative example:[aa, aab, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1586,8 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>positive example:["", "aaabaaab", "aab", "aaba", "aabaaaab", "aabaaab", "aabaaaba", "aabaaabaaab", "aabaaabaab", "aabaab", "aababab", "abaaab", "babaaab"],negative example:[]</t>
+          <t>positive example: [, aaabaaab, aab, aaba, aabaaaab, aabaaab, aabaaaba, aabaaabaaab, aabaaabaab, aabaab, aababab, abaaab, babaaab],  
+negative example: [aa, abab, baba, bba, aabba, abba, baa, baaa, aabab, ababab, bbb, aaaab, baab]</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1604,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, baaa, bbaaa],negative example:[aaa]</t>
+          <t>positive example: [aaaa, aaaaa, baaa, bbaaa], negative example: [aaa]</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1621,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb, bbb],negative example:[]</t>
+          <t>positive example: [, a, aa, b, bb, bbb], negative example: [ab, ba, aba, bab, bba, aab]</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1655,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, aaaaaa, aaab, aaba, aabb, abaa, baaa, bbaa],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, aaaaaa, aaab, aaba, aabb, abaa, baaa, bbaa], negative example: [a, b, aba, bab, abab, baba, abba, baab]</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1672,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb, bbb],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b", "bb", "bbb"], negative example:["ab", "ba", "aba", "bab", "aab", "bba"]</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1689,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>positive example:['', '0', '00', '000', '00100', '010', '0100', '01000', '010100', '01100', '1', '10011', '101', '101011', '1011', '10111', '11', '11011', '111'],negative example:['011', '100']</t>
+          <t>positive example: [, 0, 00, 000, 00100, 010, 0100, 01000, 010100, 01100, 1, 10011, 101, 101011, 1011, 10111, 11, 11011, 111], negative example: [011, 100]</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1706,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>positive example:[, abaa, b, baa, bbaa, bbaabaa, bbbaa],negative example:[cbaa]</t>
+          <t>positive example:[, abaa, b, baa, bbaa, bbaabaa, bbbaa], negative example:[aab, aba, abba, abab, baba, bbaab, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1723,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>positive example:[aabaababa, aba, abaaababa, abaabaaba, abaabaababa, abaabab, abaababa, abaababaa, abaababaababa, abaabba, ababa, abababa, b, baababa],negative example:[]</t>
+          <t>positive example: [aabaababa, aba, abaaababa, abaabaaba, abaabaababa, abaabab, abaababa, abaababaa, abaababaababa, abaabba, ababa, abababa, b, baababa], negative example: [aa, aab, aabb, ab, abab, ababb, abb, abbb, baa, baab, baba, bb]</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1740,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>positive example:[a, aaaa, aaaaaa, b, baaa, baaaa, baaaaa, baaaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[a, aaaa, aaaaaa, b, baaa, baaaa, baaaaa, baaaaaa, bbaaaa], negative example:[aa, ab, ba, bb, aba, abb, bba, bbb, aab, bab, bbaa, bbba, abaa, abba]</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1757,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, ab, b, ba],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, ab, b, ba], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1774,8 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>positive example:[, 010, 01010, 10010, 101, 1010010, 10101, 101010, 1010100, 101010010, 10110, 1011010, 101101010, 1101010],negative example:[]</t>
+          <t>positive example:["", "010", "01010", "10010", "101", "1010010", "10101", "101010", "1010100", "101010010", "10110", "1011010", "101101010", "1101010"],  
+negative example:["0", "1", "00", "11", "000", "111", "001", "011", "100", "110", "0000", "1111", "0011", "1100"]</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 001, 01, 011, 1], negative example: []</t>
+          <t>positive example:["", "0", "001", "01", "011", "1"], negative example:["10", "010", "110", "101", "000111"]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1809,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 000, 0010, 010, 0100, 0110, 1, 101, 11, 111, 1111],negative example:[01, 10]</t>
+          <t>positive example: [, 0, 00, 000, 0010, 010, 0100, 0110, 1, 101, 11, 111, 1111], negative example: [01, 10]</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1826,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abab, ba, bb],negative example:[]</t>
+          <t>positive example: [, aa, ab, abab, ba, bb], negative example: [a, b, aba, abb, baa, bba]</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1843,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, baa, baaa, baaaa, baaabaaa, baabaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[, a, aaa, baa, baaa, baaaa, baaabaaa, baabaaa, bbaaa], negative example:[b, bb, bba, ab, aba, abaa, baba, bbaab, aaab]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1860,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000, 0000, 1],negative example:[002, 020, 2, 200]</t>
+          <t>positive example:[0, 00, 000, 0000, 1], negative example:[01, 10, 11, 010, 101]</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1894,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>positive example:[, aabbbaab, ab, abaaabbbaab, abaabbbaaab, abaabbbaab, abaabbbaabaabbbaab, abaabbbbaab, ababaabbbaab, baaabbbaab],negative example:[abaabbaab, abaabbbab, ababbbaab]</t>
+          <t>positive example:[, aabbbaab, ab, abaaabbbaab, abaabbbaaab, abaabbbaab, abaabbbaabaabbbaab, abaabbbbaab, ababaabbbaab, baaabbbaab],negative example:[abaabbaab,abaabbbab,ababbbaab]</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1911,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 01010, 0110, 1, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 11, 1101, 110101],negative example:[01, 0101, 10, 1010]</t>
+          <t>positive example: [, 0, 00, 0010, 010, 0100, 010010, 01010, 0110, 1, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 11, 1101, 110101], negative example: [01, 0101, 10, 1010]</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1928,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "0010", "01", "010", "010010", "01010", "0110", "1", "10", "1001", "101", "10101", "11", "1101"],negative example:[]</t>
+          <t>positive example: [, 0, 00, 0010, 01, 010, 010010, 01010, 0110, 1, 10, 1001, 101, 10101, 11, 1101], negative example: [001, 011, 100, 110, 0001, 0111, 1000, 1100]</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1945,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aabbaa, aabbaabbaa, ababaa, abbaaa, baabaa, babaaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, aabbaa, aabbaabbaa, ababaa, abbaaa, baabaa, babaaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: [a, b, aba, abb, baa, bbb, aab, bba, abbb, baaa, aaba, babb, aaab, bbbaab, ababababab, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1962,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa", "b", "ba", "baa", "bba"],negative example:[]</t>
+          <t>positive example: [, a, aa, b, ba, baa, bba], negative example: [ab, aba, abb, aab, bab, baba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1979,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, ba, baa, baaa, bbaa], negative example: []</t>
+          <t>positive example: [, a, aa, ba, baa, baaa, bbaa], negative example: [b, bb, bbb, ab, aba, abb, bab]</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2013,8 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 00101010, 01001010, 01010010, 010101, 0101010, 01010100, 01010100101010, 010110, 0101101010, 011010, 101010, 11],negative example:[]</t>
+          <t>positive example:["", "0010", "00101010", "01001010", "01010010", "010101", "0101010", "01010100", "01010100101010", "010110", "0101101010", "011010", "101010", "11"],  
+negative example:["0", "1", "00", "01", "10", "000", "001", "010", "011", "100", "101", "110", "111", "0000", "0001", "0011", "0100", "0110", "0111", "1000", "1001", "1011", "1100", "1101", "1110", "1111"]</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2031,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aab, aaba, aabaab, ab, bab],negative example:[]</t>
+          <t>positive example: [, aaab, aab, aaba, aabaab, ab, bab], negative example: [baa, bba, aaa, bbb, abaabba, aabbaa]</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2048,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, aaaaa, abaa, ba, baaa],negative example:[]</t>
+          <t>positive example: [aa, aaa, aaaa, aaaaa, abaa, ba, baaa], negative example: [a, b, ab, aba, abb, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2082,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, aaaaa, aaaaaa, aaaaaaaa, abaaa, baaaa],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, aaaaa, aaaaaa, aaaaaaaa, abaaa, baaaa], negative example: [a, b, ab, aba, abab, baba, aaab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2116,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaa, aaaa, abaa, abaaa, abaaaa, abbaaa, baa],negative example:[]</t>
+          <t>positive example:[, aa, aaa, aaaa, abaa, abaaa, abaaaa, abbaaa, baa], negative example:[b, bb, aba, baba, aab, aabb]</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2133,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>positive example: [, aa, abaa, abab, ababaa, ababaaaa, ababab, abababaa, ababababaa, ababba, baaa, baabaa, baababaa], negative example: []</t>
+          <t>positive example: [, aa, abaa, abab, ababaa, ababaaaa, ababab, abababaa, ababababaa, ababba, baaa, baabaa, baababaa], negative example: [a, b, aba, abb, baba, babb, ababa, ababb, baaba, baabb, abababa, abababb, baababa, baababb]</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2150,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>positive example:[aabb, ab, abb, bab, baba, babb, babbb, bbabb],negative example:[babc, cabb]</t>
+          <t>positive example:[aabb, ab, abb, bab, baba, babb, babbb, bbabb],negative example:[a, b, aa, bb, aaa, bbb, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2167,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa", "b", "bb"],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb], negative example:[ab, ba, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2184,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, bb],negative example:[]</t>
+          <t>positive example:[aab, ab, b, bb], negative example:[aa, a, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2201,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>positive example:[, aabababa, aba, abaababa, ababaaba, ababab, abababa, abababaa, abababaabababa, abababababa, ababba, abbaba, bababa],negative example:[]</t>
+          <t>positive example: [, aabababa, aba, abaababa, ababaaba, ababab, abababa, abababaa, abababaabababa, abababababa, ababba, abbaba, bababa], negative example: [b, aaab, abababb, ababababab, abababababb, abababababbb, abababababab, ababababababa, ababababababab, abababababababa, abababababababab, ababababababababa]</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2218,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, b], negative example:[ab, ba, aab]</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2235,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>positive example:[, aab, aababba, ab, abaa, abaabba, ababb, ababba, ababbaa, ababbaababba, ababbbba, abbba, b, babba],negative example:[]</t>
+          <t>positive example: [, aab, aababba, ab, abaa, abaabba, ababb, ababba, ababbaa, ababbaababba, ababbbba, abbba, b, babba], negative example: [ba, aaba, aaab, baba, bba, bbb, aaabbb, ababab, abbaa, baa, baaa, babab, bbaa, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2286,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 0000, 010],negative example:[]</t>
+          <t>positive example:[, 00, 000, 0000, 010], negative example:[1, 01, 10, 101, 0110]</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2303,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aabbaa, aabbaaaaab, aabbaaaabbaaab, aabbaaab, aabbaaabab, aabbaabbaaab, aabbab, aabbabab, aabbbaab, aabbbbab, ab, ababaaab, abbaaaab, baabaaab, babaaaab, bbaaaaab], negative example: []</t>
+          <t>positive example: [, aaab, aabbaa, aabbaaaaab, aabbaaaabbaaab, aabbaaab, aabbaaabab, aabbaabbaaab, aabbab, aabbabab, aabbbaab, aabbbbab, ab, ababaaab, abbaaaab, baabaaab, babaaaab, bbaaaaab], negative example: [a, b, aaa, bbb, aba, bab, aabbb, bbaaa, ababababab, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2320,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb, bbb],negative example:[]</t>
+          <t>positive example: [, a, aa, b, bb, bbb], negative example: [ab, ba, aba, bab, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2337,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa], negative example:[a, b, aa, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2354,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>positive example:[, aabbaabbbbaaabba, aabbbbaaabba, ab, abaabbbbaaaabba, abaabbbbaaabba, abaabbbbaaabbaaabbbbaaabba, abaabbbbaaabbba, abaabbbbbaaabba, ababaabbbbaaabba, baaabbbbaaabba, bbaaaabbbbaaabba],negative example:[abaabbbaaabba, abaabbbbaaaba, abaabbbbaabba]</t>
+          <t>positive example: [, aabbaabbbbaaabba, aabbbbaaabba, ab, abaabbbbaaaabba, abaabbbbaaabba, abaabbbbaaabbaaabbbbaaabba, abaabbbbaaabbba, abaabbbbbaaabba, ababaabbbbaaabba, baaabbbbaaabba, bbaaaabbbbaaabba], negative example: [abaabbbaaabba, abaabbbbaaaba, abaabbbbaabba]</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2371,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aab, ab, aba, abab, b, ba, baa],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aab, ab, aba, abab, b, ba, baa], negative example: [c, ac, bb, aaaa, abb, abc, bba, babab]</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2388,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aabbaa, ababaa, ababababaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, aabbaa, ababaa, ababababaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: [a, b, aba, abb, baa, bab, aab, bba, abba, baba, aaab, bbbaab]</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2405,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abaa, abaaaa, abab, ababaa, abba],negative example:[]</t>
+          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba], negative example: [a, b, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2422,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aababa, abaaba, abab, ababa, ababaa, ababaababa, ababba, ababbaba, abba, abbaba, baba],negative example:[aaba, abaa]</t>
+          <t>positive example:[, aa, aababa, abaaba, abab, ababa, ababaa, ababaababa, ababba, ababbaba, abba, abbaba, baba],negative example:[aaba,abaa]</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2439,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, aabaaa, abaa, abaaaa, baaa, baaaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, aaaaaaa, aabaaa, abaa, abaaaa, baaa, baaaaa], negative example: [a, b, aa, ab, ba, bb, aab, aba, bba, aaaab, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2456,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, baaab, baab, bab, bb],negative example:[]</t>
+          <t>positive example:[aab, ab, b, baaab, baab, bab, bb],negative example:[aa, a, baaa, aba, baba, bba]</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2473,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, abaa, ababaa, baa, baaa, bb, bbaa, bbaaaa, bbab, bbba, bbbaa, bbbb, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, abaa, ababaa, baa, baaa, bb, bbaa, bbaaaa, bbab, bbba, bbbaa, bbbb, bbbbaa], negative example: [a, b, aba, abb, aab, bab, baba, abba, abbb, aaab, babaab, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2490,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>positive example:[a, aaaa, aaaaa, aaaaaa, abaaa, b, baaa, baaaa],negative example:[]</t>
+          <t>positive example:[a, aaaa, aaaaa, aaaaaa, abaaa, b, baaa, baaaa],negative example:[aa, ab, ba, bb, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2507,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>positive example: [, a, aab, ab, abb, b], negative example: []</t>
+          <t>positive example:[, a, aab, ab, abb, b], negative example:[ba, aba, aaabbb, bab, aabbab, bba]</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2524,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, aaaaa, aab, ab, aba, abab, b, ba, baa],negative example:[]</t>
+          <t>positive example: [, a, aaa, aaaaa, aab, ab, aba, abab, b, ba, baa], negative example: [aa, bb, aaaa, bbbb, abba, baab]</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2541,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>positive example:["", "aa", "aba", "abaa", "abaaa", "abaaaa", "abaaaaa", "abaab", "abaabaaa", "ababa", "abbaa"],negative example:[]</t>
+          <t>positive example: [, aa, aba, abaa, abaaa, abaaaa, abaaaaa, abaab, abaabaaa, ababa, abbaa], negative example: [a, b, ab, abb, abab, abba, abbb, aab, baa, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2558,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>positive example:[a, aaaa, b, baaa, baaaa, bbaaa],negative example:[aaa, baa, c, caaa]</t>
+          <t>positive example:[a, aaaa, b, baaa, baaaa, bbaaa],negative example:[aaa,baa]</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2575,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abab, abb, b, bb],negative example:[]</t>
+          <t>positive example: [, a, aab, ab, abab, abb, b, bb], negative example: [c, aaac, aba1, bbbx, ab#]</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2609,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>positive example:[aabbaaabb, abaaabb, ababb, ababbaaabb, abbaaaabb, abbaaab, abbaaabb, abbaaabbb, abbaabaaabb, abbaabb, abbbaaabb, b, baaabb, bbaaabb],negative example:[]</t>
+          <t>positive example: [aabbaaabb, abaaabb, ababb, ababbaaabb, abbaaaabb, abbaaab, abbaaabb, abbaaabbb, abbaabaaabb, abbaabb, abbbaaabb, b, baaabb, bbaaabb], negative example: [aa, aab, aaba, aabba, ab, aba, abaa, abba, abbaa, abbaaa, abbaab, abbab, abbbb, baaa, baba, bba, bbaa, bbaaa, bbaab, bbab, bbb]</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2626,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10101, 101011, 1010110101, 1011, 101101, 11, 1101, 110101],negative example:[]</t>
+          <t>positive example: [, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10101, 101011, 1010110101, 1011, 101101, 11, 1101, 110101], negative example: [01, 10, 0011, 1100, 01001, 10110, 000111, 111000, 010011, 101100]</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2660,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2677,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaaa, baaa],negative example:[a, aaa]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaaa, baaa],negative example:[a,aaa]</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2694,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>positive example:[aaaaa, aaaaaa, aaaaaaa, aaaaab, abaaa, abaaaa, baaaa, baaaaa],negative example:[]</t>
+          <t>positive example: [aaaaa, aaaaaa, aaaaaaa, aaaaab, abaaa, abaaaa, baaaa, baaaaa], negative example: [aa, aab, aba, abab, baa, baba, bb, bbb]</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2711,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, abaaa, baaa, baaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, abaaa, baaa, baaaa], negative example: [a, b, aa, ab, ba, bb, aaa, aba, bba, aab, bab, bbb]</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2728,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, bb, bbb, bbbb], negative example: []</t>
+          <t>positive example:["", "a", "aa", "b", "bb", "bbb", "bbbb"], negative example:["ab", "ba", "aba", "bab", "aab", "bba"]</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2745,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aab, aaba, aabaab, ab, bab],negative example:[]</t>
+          <t>positive example: [, aaab, aab, aaba, aabaab, ab, bab], negative example: [baa, bba, aaa, bbb, abaabba, aabbaa]</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2762,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaa, aaaaa, aaaaaa, b, baaaa],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaa, aaaaa, aaaaaa, b, baaaa],negative example:[aa, ab, ba, bb, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2779,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>positive example:[[, 0, 1, 11],negative example:[2]</t>
+          <t>positive example:["", "0", "1", "11"], negative example:["2", "a", "01a", "10b"]</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2796,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>positive example: [, aaabaaab, aab, aaba, aabaaaab, aabaaab, aabaaabaaab, aabaaabaab, aabaab, aababab, abaaab, babaaab], negative example: []</t>
+          <t>positive example: [, aaabaaab, aab, aaba, aabaaaab, aabaaab, aabaaabaaab, aabaaabaab, aabaab, aababab, abaaab, babaaab], negative example: [aa, ab, ba, bb, aaa, aba, abb, baa, bab, bba, bbb, aaaa, aaab, aaba, aabb, abaa, abab, abba, abbb, baaa, baab, baba, babb, bbaa, bbab, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2813,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa],negative example:[aa, ab, ba, bb, aab]</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2830,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baa, baaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baa, baaaa], negative example:[a, b, aa, ab, ba, bb, aab, aba, abb, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2847,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2864,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, abaa, abaaaaab, abaaab, abaaabab, abaaba, abab, ababaaab, abbbab, baaaab],negative example:[]</t>
+          <t>positive example: [, aaab, abaa, abaaaaab, abaaab, abaaabab, abaaba, abab, ababaaab, abbbab, baaaab], negative example: [a, b, aba, abb, baa, bab, abba, baab, ababababab, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2881,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2898,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>positive example:[aabbaababb, abaababb, abbaaababb, abbaaabb, abbaab, abbaabaabb, abbaabab, abbaababb, abbaababbabb, abbaababbb, abbaabbabb, abbaabbb, abbababb, abbbaababb, ba, bbaababb],negative example:[]</t>
+          <t>positive example:[aabbaababb, abaababb, abbaaababb, abbaaabb, abbaab, abbaabaabb, abbaabab, abbaababb, abbaababbabb, abbaababbb, abbaabbabb, abbaabbb, abbababb, abbbaababb, ba, bbaababb],negative example:[a, b, aa, bb, ab, baab, baba, abab, aabb, bbaa, ababab, bbbaaa, aabbaa, bbaabb, aabab, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2949,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[2, 01a, a, 10b]</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2966,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>positive example:[ababb, bab, babb, bbaab, bbab, bbabb, bbabbb, bbbabb],negative example:[bbacb, bbbbb, cbabb]</t>
+          <t>positive example:[ababb, bab, babb, bbaab, bbab, bbabb, bbabbb, bbbabb],negative example:[bbbbb]</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2983,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaaa, aabaaa, ab, abaaaa, ba, baaaaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaaa, aabaaa, ab, abaaaa, ba, baaaaa], negative example:[a, b, aba, abab, baba, aab, baa, aabb, bbaa, abba]</t>
         </is>
       </c>
     </row>
@@ -2996,7 +3000,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, abaaa, baaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, abaaa, baaa, baaaa, bbaaa],negative example:[a, aa, ab, ba, bb, aba, bab, bba, aab, bbb]</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3017,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[2, 01a, 10b]</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3034,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 010010, 0110, 1, 10, 1001, 101, 1011, 101101, 11, 1101], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 010010, 0110, 1, 10, 1001, 101, 1011, 101101, 11, 1101], negative example: [001, 011, 100, 110, 0101, 1010, 1100, 0011]</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3068,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>positive example:[, aab, ab, abab, b],negative example:[]</t>
+          <t>positive example: [, aab, ab, abab, b], negative example: [aa, ba, bb, aba, aaba]</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3102,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0010, 01, 010, 0100, 010010, 0110, 10, 1001, 101, 1011, 11, 1101],negative example:[]</t>
+          <t>positive example:["", "00", "0010", "01", "010", "0100", "010010", "0110", "10", "1001", "101", "1011", "11", "1101"], negative example:["0", "1", "000", "111", "011", "110", "001", "100", "0101", "1010", "1100", "0011"]</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3119,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 01, 010, 0100, 010010, 10],negative example:[]</t>
+          <t>positive example:[, 0010, 01, 010, 0100, 010010, 10], negative example:[0, 1, 00, 11, 000, 101, 1001]</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3136,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 00010, 0010, 00100, 001010, 00110, 010, 1, 10011, 101, 101011, 1011, 10111, 11, 11011, 111],negative example: [001, 011]</t>
+          <t>positive example:[, 0, 00, 000, 00010, 0010, 00100, 001010, 00110, 010, 1, 10011, 101, 101011, 1011, 10111, 11, 11011, 111],negative example:[001,011]</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3170,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa], negative example:[aa, aab, aba, bba, abab]</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3187,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabbab, abba, abbaab, abbab, abbabb, abbb, bb, bbab, bbbab], negative example: []</t>
+          <t>positive example: [, a, aa, aabbab, abba, abbaab, abbab, abbabb, abbb, bb, bbab, bbbab], negative example: [b, ab, aba, abab, abb, abbba, ba, bab, baba, babb, bba]</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3204,8 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>positive example:[, 00110, 01, 010, 010110, 011, 0110, 01100, 011010, 01110, 10, 110],negative example:[]</t>
+          <t>positive example:["", "00110", "01", "010", "010110", "011", "0110", "01100", "011010", "01110", "10", "110"],  
+negative example:["0", "1", "00", "11", "000", "111", "001", "100", "0101", "1010", "0111", "1100"]</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3222,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "000", "0000", "01", "010", "10", "1001", "101", "1011", "11", "1101", "111"],negative example:[]</t>
+          <t>positive example: [, 00, 000, 0000, 01, 010, 10, 1001, 101, 1011, 11, 1101, 111], negative example: []</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3239,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>positive example:[, aabbba, aba, abba, abbb, abbba, abbbaa, abbbaabbba, abbbba, abbbbba, bbba],negative example:[]</t>
+          <t>positive example: [, aabbba, aba, abba, abbb, abbba, abbbaa, abbbaabbba, abbbba, abbbbba, bbba], negative example: [abab, aabbaa, baba, aaabbb, ababab, bbaaab, aababba, ababba, bbaabba, aaabab]</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3256,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "000", "00010", "001", "0010", "00100", "001010", "00110", "010"],negative example:[]</t>
+          <t>positive example:["", "00", "000", "00010", "001", "0010", "00100", "001010", "00110", "010"], negative example:["1", "01", "011", "0110", "0111", "101", "1010", "110", "1100", "111"]</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3273,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "000", "00100", "010", "0100", "01000", "010100", "011", "01100", "1", "100", "10011", "101", "101011", "1011", "10111", "11", "11011", "111"],negative example:[]</t>
+          <t>positive example: [, 0, 00, 000, 00100, 010, 0100, 01000, 010100, 011, 01100, 1, 100, 10011, 101, 101011, 1011, 10111, 11, 11011, 111], negative example: [2, 01a, 1010b, 0002, 1c, 0d, e, f11, 1g0, 0h1, 00i]</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3290,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaaba, aab, aaba, aabaab, ab, aba, bab, baba],negative example:[]</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaab, ab, aba, bab, baba], negative example: [aa, aaa, ba, bb, baa, bba, abaa, abba, babb, bbbb]</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3307,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>positive example:["", "aa", "aaaa", "ab", "ba", "bb"],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: [a, b, aab, aba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3324,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, ba, a]</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3358,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aab, aaba, ab, abb, b, babb],negative example:[]</t>
+          <t>positive example: [, a, aa, aab, aaba, ab, abb, b, babb], negative example: [ba, bb, baba, abaa, abab, abaab, abba, bba]</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3392,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, abaaa, baaa, baaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, abaaa, baaa, baaaa], negative example: [aaa, aaab, baba, abab, bba, aab]</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3409,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baa, baaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, abaaa, baa, baaaa], negative example: [a, b, aa, ab, ba, bb, aab, aba, abb, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3426,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>positive example:[, aaba, ab, aba, abaa, abaaba, ba, bbba],negative example:[]</t>
+          <t>positive example: [, aaba, ab, aba, abaa, abaaba, ba, bbba], negative example: [aab, bb, baaab, abab, baba, aabba, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3443,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, aaab, aab, aabab, ab, aba, bab],negative example:[]</t>
+          <t>positive example:[, a, aaa, aaab, aab, aabab, ab, aba, bab], negative example:[b, bb, bbb, bbba, baab, abb, baba]</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3460,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[01, 10, 011]</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3477,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abaa, ababaa, abbb, baaa],negative example:[abaaaa]</t>
+          <t>positive example: [, aa, ab, abaa, ababaa, abbb, baaa], negative example: [abaaaa]</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3511,8 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aabababa, aba, abaababa, ababaaba, ababab, abababa, abababaa, abababababa, abababbababa, ababba, abbaba, bababa], negative example: []</t>
+          <t>positive example: [, aa, aabababa, aba, abaababa, ababaaba, ababab, abababa, abababaa, abababababa, abababbababa, ababba, abbaba, bababa],  
+negative example: [b, bb, bbb, ab, aab, ba, baa, abab, abba, baba, bbaa, ababbaa, abbb, bbaab, aabba]</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3529,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example: [2, 012, 102, 1102, 0002, 1112, 0102, 1012, 0012, 0112]</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11"], negative example:["01", "10", "010", "101"]</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3563,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example: [, a, aa, b, ba, baa, bba], negative example: [ab, aba, abb, aab, bab, baba, babb]</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3580,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ab, ba, bb],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: [a, b, aab, aba, baa, bab, bba, abb]</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3614,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>positive example:[aabbb, ab, aba, abaa, abb, abbb, abbbb, abbbbb, b, bbb],negative example:[]</t>
+          <t>positive example:[aabbb, ab, aba, abaa, abb, abbb, abbbb, abbbbb, b, bbb], negative example:[aa, aaaa, ba, baba, bba, bbba, bbbba, bbbbbba, ababab, aabba]</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3631,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa, bbaaaa], negative example:[aa, a, b, bb, bbb, abaa]</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3648,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>positive example:[, a, b, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:["", "a", "b", "bb", "bbb", "bbbb"], negative example:["ab", "ba", "aba", "bab", "aa", "bbab"]</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3665,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, b, bab],negative example:[]</t>
+          <t>positive example: [aaab, aab, ab, b, bab], negative example: [ba, aaa, bb, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3682,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aab, aaba, aabaa, aabaaaba, aba, baba],negative example:[]</t>
+          <t>positive example: [, aaaba, aab, aaba, aabaa, aabaaaba, aba, baba], negative example: [abab, bba, aabb, abba, baaa, aaab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3699,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>positive example: [, a, ba, bb, bba, bbaa, bbabba, bbba, bbbba],negative example: []</t>
+          <t>positive example: [, a, ba, bb, bba, bbaa, bbabba, bbba, bbbba], negative example: [ab, aaab, baba, abbb, aabba, baa, abab, bbbab]</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3716,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaaa, aabaaa, ab, abaaaa, ba, baaaaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaaa, aabaaa, ab, abaaaa, ba, baaaaa], negative example:[a, b, aaaa, baaa, abab, baba, aaab, bbaa, abba, bbba]</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3733,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaba, ab, aba, abaa, abba, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example:[, a, aa, aaba, ab, aba, abaa, abba, b, ba, baa, bba], negative example:[abab, bb, aab, baaa, abb, aabb, baba, aaab]</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3750,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, bbb, bbbbb], negative example: []</t>
+          <t>positive example: [, a, aa, b, bbb, bbbbb], negative example: [ab, ba, bb, bbba, abbb, aab]</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3767,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>positive example:[, aabab, aba, abaab, abab, abababab, ababb, abb, bab],negative example:[]</t>
+          <t>positive example: [, aabab, aba, abaab, abab, abababab, ababb, abb, bab], negative example: [aa, aaa, b, ba, baa, bb, bba]</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3784,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abaa, abaaaa, ababaa, abbb, baaa],negative example:[]</t>
+          <t>positive example: [, aa, ab, abaa, abaaaa, ababaa, abbb, baaa], negative example: [a, b, aba, abb, baa, bab, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3801,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 0000, 0001, 001, 0010, 0011, 01, 010, 011, 0110, 0111, 10, 100, 1000, 1001, 101, 11, 110, 1100, 1101, 111, 1110, 1111],negative example:[0, 1]</t>
+          <t>positive example:[00, 000, 0000, 0001, 001, 0010, 0011, 01, 010, 011, 0110, 0111, 10, 100, 1000, 1001, 101, 11, 110, 1100, 1101, 111, 1110, 1111], negative example:[0,1]</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3818,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>positive example:[, a, b, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:["", "a", "b", "bb", "bbb", "bbbb"], negative example:["ab", "ba", "aba", "bab", "aaab", "bbba"]</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3835,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, bb, bbb, bbbb, bbbbbb],negative example:[]</t>
+          <t>positive example: [, a, aa, bb, bbb, bbbb, bbbbbb], negative example: [ab, ba, aab, bba, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3852,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>positive example: [, 010, 01010, 10010, 1001010, 101, 10100, 1010010, 10101, 101010, 1010100, 101010010, 1010110, 10110, 1011010, 101101010, 11010, 1101010], negative example: []</t>
+          <t>positive example:["", "010", "01010", "10010", "1001010", "101", "10100", "1010010", "10101", "101010", "1010100", "101010010", "1010110", "10110", "1011010", "101101010", "11010", "1101010"], negative example:["0", "1", "00", "11", "000", "111", "0011", "1100", "0110", "1001", "000111", "111000", "010101", "1010101", "0101010", "10101010"]</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3869,8 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>positive example:[, 010, 01010, 10010, 1001010, 10100, 1010010, 10101, 101010, 1010100, 1010110, 10110, 1011010, 101101010, 11010, 1101010],negative example:[]</t>
+          <t>positive example:["", "010", "01010", "10010", "1001010", "10100", "1010010", "10101", "101010", "1010100", "1010110", "10110", "1011010", "101101010", "11010", "1101010"],  
+negative example:["0", "1", "00", "11", "000", "111", "001", "011", "100", "110", "0011", "0110", "1001", "1100", "000111", "111000"]</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aab, ab, abb, b], negative example: [ba, aba, bba, aaba]</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, b], negative example:[ab, ba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>positive example:["", "aa", "aaaa", "ab", "ba"], negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, ba], negative example: [a, b, aab, aba, bbb]</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>positive example:[aabb, ab, abb, bab, baba, babb, babbb, bbabb],negative example:[babc, cabb]</t>
+          <t>positive example:[aabb, ab, abb, bab, baba, babb, babbb, bbabb],negative example:[aa, bb, bba, aaa, bbbb, ababab, bbbaa, aabba]</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, b, bb],negative example:[]</t>
+          <t>positive example:[a, aa, b, bb, ab, abb, bba, bbb], negative example:[c, ac, bc, abc, aab, bab, bbc, abbc]</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "000", "0000", "001", "010", "100"],negative example:[]</t>
+          <t>positive example:["", "00", "000", "0000", "001", "010", "100"], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaab, aba, abaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaab, aba, abaa], negative example: [a, b, aa, ab, ba, bb, aab, abb, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -3999,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>positive example:[, abab, baba, babaabab, bababab, babababbab, babbab, babbababab, babbbab],negative example:[]</t>
+          <t>positive example:[, abab, baba, babaabab, bababab, babababbab, babbab, babbababab, babbbab],negative example:[a, b, aa, bb, abba, baab, ababab, bbbaaa, abababa]</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "bb", "bbb", "bbbb", "bbbbbb"],negative example:[]</t>
+          <t>positive example: [, a, bb, bbb, bbbb, bbbbbb], negative example: [b, ab, ba, bba, aba, baba]</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaaa, aaba, ab, aba, abaa, ababa, abba, ba],negative example:[]</t>
+          <t>positive example: [, a, aa, aaaa, aaba, ab, aba, abaa, ababa, abba, ba], negative example: [b, bb, aab, aabab, baaa, baba, babb, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, abb],negative example:[a, b]</t>
+          <t>positive example:[aab, ab, abb],negative example:[a,b]</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, aabaaa, abaa, abaaaa, baaa, baaaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, aabaaa, abaa, abaaaa, baaa, baaaaa],negative example:[a, b, aa, ab, ba, bb, aab, aba, abb, baa, bab, bba, bbb, aaba, abab, abba, babb, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baaaa],negative example:[a, aa, ab, ba, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1, 11], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaa, aaab, aab, aabb, ab, abab], negative example: []</t>
+          <t>positive example: [, aa, aaa, aaab, aab, aabb, ab, abab], negative example: [baa, baba, bb, bba, bab, baaa, aaba, abaab]</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, baa, baaa],negative example:[]</t>
+          <t>positive example:[, a, aa, ba, baa, baaa], negative example:[b, ab, bb, aab, bab]</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, b], negative example:[ba, aba, bab, aabba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>positive example:["", "001", "00101", "01", "010", "01001", "0101", "010101", "01011", "011", "01101", "101"], negative example:[]</t>
+          <t>positive example: [, 001, 00101, 01, 010, 01001, 0101, 010101, 01011, 011, 01101, 101], negative example: [0, 00, 000, 1, 11, 111, 10, 100, 1000, 110, 1100, 1010]</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, ab, abab, b, ba],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "aaa", "ab", "abab", "b", "ba"], negative example:["aba", "abb", "baa", "bab", "aab", "bba"]</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example: [, a, aa, bb, bbb, bbbb], negative example: [b, ab, ba, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>positive example:[, a, ab, abab, b, ba],negative example:[]</t>
+          <t>positive example: [, a, ab, abab, b, ba], negative example: [aa, bb, aba, bab, abba, baba]</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa], negative example:[aa, ab, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>positive example: [, abb, bba, bbaabb, bbabb, bbabbbb, bbbb, bbbbabb, bbbbb], negative example: []</t>
+          <t>positive example: [, abb, bba, bbaabb, bbabb, bbabbbb, bbbb, bbbbabb, bbbbb], negative example: [a, b, ab, ba, aa, bab, aba, aab, baa]</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, bab],negative example:[]</t>
+          <t>positive example: [aaab, aab, ab, bab], negative example: [a, b, ba, bba]</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ab, ba],negative example:[]</t>
+          <t>positive example:[, aa, aaaa, ab, ba], negative example:[a, b, bb, aab, aba]</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aab, aabaab, ab], negative example: []</t>
+          <t>positive example: [, aaab, aab, aabaab, ab], negative example: [b, ba, aaaab, aabaa, bb]</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa", "b", "bb"],negative example:[]</t>
+          <t>positive example: ["", "a", "aa", "b", "bb"], negative example: ["c", "ab", "ba", "bbb", "aba"]</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 000, 00010, 001, 0010, 00100, 001010, 00110, 010], negative example: []</t>
+          <t>positive example:[, 00, 000, 00010, 001, 0010, 00100, 001010, 00110, 010], negative example:[1, 01, 011, 0110, 0111, 101, 110, 111]</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4448,8 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>positive example: [, 000110, 0010, 0010110, 00110, 0011000110, 001110, 010, 0110, 1001, 101, 110001, 11001, 1100111001, 1101, 1101001, 111001], negative example: []</t>
+          <t>positive example:["", "000110", "0010", "0010110", "00110", "0011000110", "001110", "010", "0110", "1001", "101", "110001", "11001", "1100111001", "1101", "1101001", "111001"],  
+negative example:["0", "1", "00", "11", "000", "111", "0101", "1010", "0011", "1100", "000111", "111000", "01010", "10101", "001100", "110011"]</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4466,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 00010, 001, 0010, 00100, 001010, 00110, 010],negative example:[]</t>
+          <t>positive example: [, 00, 000, 00010, 001, 0010, 00100, 001010, 00110, 010], negative example: [1, 01, 011, 0110, 0111, 101, 110, 111]</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4500,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, aaaa, aaaaa, aaaaaaa, baaa], negative example:[]</t>
+          <t>positive example:[, a, aaa, aaaa, aaaaa, aaaaaaa, baaa], negative example:[aa, ab, aba, baa, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4517,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, abaa, ababaa, baaa, bb, bbaa, bbaaaa, bbab, bbabab, bbba, bbbaba, bbbb, bbbbaa, bbbbbb], negative example: []</t>
+          <t>positive example: [, aa, aaaa, abaa, ababaa, baaa, bb, bbaa, bbaaaa, bbab, bbabab, bbba, bbbaba, bbbb, bbbbaa, bbbbbb], negative example: [a, b, aba, abb, bab, baaab, abba, babaab, ababba, bbbaaab]</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4534,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abaa, abab, ababab, abba],negative example:[]</t>
+          <t>positive example: [, ab, abaa, abab, ababab, abba], negative example: [b, a, baab, baba, bba, aabba]</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4551,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>positive example:[abaabb, b, baabb, bbaaab, bbaab, bbaabaabb, bbaabb, bbaabbb, bbaabbbaabb, bbb, bbbaabb],negative example:[bbaacb, cbaabb]</t>
+          <t>positive example:[abaabb, b, baabb, bbaaab, bbaab, bbaabaabb, bbaabb, bbaabbb, bbaabbbaabb, bbb, bbbaabb],negative example:[a, aa, ab, aba, abaa, abab, abb, abba, ba, baaa, bab]</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4568,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example: [2, 012, 102, 021, 120, 0002, 1112, 0102, 1012, 0012, 1102]</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4585,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, b, ab, ba, aab, bba, aabb, baba],negative example:[c, ac, bc, abc, aac, bbca, 1, @, a1b]</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4602,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, abaa, abaaa, baaa, baaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, abaa, abaaa, baaa, baaaa], negative example: [a, b, aa, ab, ba, bb, aaa, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4619,8 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 00100, 010, 0100, 01000, 010100, 011, 01100, 1, 100, 10011, 101, 101011, 1011, 10111, 11, 11011, 111], negative example: []</t>
+          <t>positive example:["", "0", "00", "000", "00100", "010", "0100", "01000", "010100", "011", "01100", "1", "100", "10011", "101", "101011", "1011", "10111", "11", "11011", "111"],  
+negative example:["01", "001", "0001", "10", "110", "1110", "0101", "0110", "1010", "1100"]</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4637,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>positive example: [, a, b, babb, bb, bbab, bbb], negative example: []</t>
+          <t>positive example:[, a, b, babb, bb, bbab, bbb], negative example:[ba, ab, aba, bba, aa, bab, bbba]</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4654,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>positive example:[0, 0010, 1000, 100010, 1001, 10010, 100100, 100110, 1010, 110010],negative example:[]</t>
+          <t>positive example:[0, 0010, 1000, 100010, 1001, 10010, 100100, 100110, 1010, 110010],negative example:[1, 00, 11, 010, 101, 1100, 0110, 0001, 1110, 0101]</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4671,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 010, 0110, 0110110, 01110, 1, 10001, 1001, 1001001, 101, 11], negative example: []</t>
+          <t>positive example: [, 0, 00, 010, 0110, 0110110, 01110, 1, 10001, 1001, 1001001, 101, 11], negative example: [01, 10, 001, 110, 0001, 1110, 0101, 1010]</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4688,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>positive example:[0010, 01, 010, 0100, 010010, 1, 10],negative example:[]</t>
+          <t>positive example:[0010, 01, 010, 0100, 010010, 1, 10], negative example:[0, 00, 000, 11, 101, 110, 0011]</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4705,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b"], negative example:["ab", "ba", "aba", "aab"]</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4722,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aabaaa, abaaa, ababaaa, abbaaa, b, baaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aabaaa, abaaa, ababaaa, abbaaa, b, baaa], negative example: [aa, ab, aab, abb, ba, bba, bab, aabba]</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4739,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>positive example:[, aabaa, aba, abaa, abaaa, abaaabaa, baa],negative example:[]</t>
+          <t>positive example:[, aabaa, aba, abaa, abaaa, abaaabaa, baa], negative example:[a, aa, aaa, ab, aaba, baba, bb]</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4756,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aaaaaa, aabb, aabbbb, ab, abab, ba, baab, baabab, baba, bbaa, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, aaaaaa, aabb, aabbbb, ab, abab, ba, baab, baabab, baba, bbaa, bbbbaa], negative example: [a, b, aba, bab, aab, bba, aaab, bbba, abba, baabba]</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4773,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, ab],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, ab], negative example:[b, ba, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4790,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, bb],negative example:[]</t>
+          <t>positive example: [aab, ab, b, bb], negative example: [aaa, aba, a, baab]</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4807,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>positive example:[aabb, ab, abb, baab, bab, babb, babbb, bbabb, bbbb],negative example:[bacb, bcbb, cabb]</t>
+          <t>positive example: [aabb, ab, abb, baab, bab, babb, babbb, bbabb, bbbb], negative example: [a, b, aa, ba, bba, baaa, abba, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4841,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abaa, abaaaa, abab, ababaa, abba, baaa],negative example:[]</t>
+          <t>positive example:[, aa, ab, abaa, abaaaa, abab, ababaa, abba, baaa], negative example:[a, b, aba, abb, baaab, baba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4892,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aaaba, aab, aaba, aabaab, ab, aba, bab, baba], negative example: []</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaab, ab, aba, bab, baba], negative example: [baa, baaa, baaab, bb, bba, bbaa, bbb, abaa, abaaa, abba]</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4909,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>positive example:[001110, 010, 0111, 01110, 011100, 01111, 0111110, 1, 1110],negative example:[]</t>
+          <t>positive example:[001110, 010, 0111, 01110, 011100, 01111, 0111110, 1, 1110],negative example:[000, 111, 0110, 1010, 1100, 00100, 0100, 1001]</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4943,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aba, ababba, abb, abba, abbaa, abbba, ba],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aba, ababba, abb, abba, abbaa, abbba, ba], negative example: [b, bb, bbb, abab, ababab, abababa, abababab, aab, aaba, aabaa, aabab]</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4960,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaabaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example: [, a, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaabaaa, abbaaa, baaa], negative example: [ab, aaba, abaab, abab, baba, aaab, aabab, ababaa, baaab, ababaaa]</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4977,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aabbaa, ababaa, abbaaa, baabaa, babaaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, aabbaa, ababaa, abbaaa, baabaa, babaaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: [a, b, aba, abb, baa, bbb, aab, bba, abbb, baaa, aaba, abaaa, babb, bbaab]</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5011,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aab, aaba, aabaab, ab, bab], negative example: []</t>
+          <t>positive example: [, aaab, aab, aaba, aabaab, ab, bab], negative example: [baa, bba, aaa, baba, abab, baaa]</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5028,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example: [, a, aa, b, bb], negative example: [ab, ba, aab, bba, abb]</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5062,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 1, 10, 100, 1010, 110],negative example:[]</t>
+          <t>positive example:["", "0", "1", "10", "100", "1010", "110"],negative example:["01", "011", "001", "0101", "1100"]</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5079,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>positive example:[, ab, ababba, abba, abbaabba, abbaba, abbabba, abbabbba, abbbabba, abbbba, ba],negative example:[]</t>
+          <t>positive example:[, ab, ababba, abba, abbaabba, abbaba, abbabba, abbabbba, abbbabba, abbbba, ba],negative example:[a, b, aa, bb, aba, bab, baa, aab, bbb, aabb, ababab, babaab, abababa, bbbaaa, abababab]</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5096,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>positive example:[a, ab, b, baab, bab, bb, bbab],negative example:[]</t>
+          <t>positive example:[a, ab, b, baab, bab, bb, bbab],negative example:[aa, aba, abb, bba, bbba, aaa, bbbb]</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5113,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, aaaa, aab, b, ba, baa, bba], negative example: []</t>
+          <t>positive example: [, a, aa, aaa, aaaa, aab, b, ba, baa, bba], negative example: [ab, aba, abb, abaa, abab, abba, abbb, baba, babb, bbba]</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5130,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb, bbb],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb, bbb], negative example:[ab, ba, aba, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5164,8 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 010010, 0110, 1, 10, 1001, 101, 1011, 101101, 11, 1101], negative example: []</t>
+          <t>positive example:["", "0", "00", "0010", "01", "010", "0100", "010010", "0110", "1", "10", "1001", "101", "1011", "101101", "11", "1101"],  
+negative example:["001", "0101", "011", "100", "1010", "110", "1100", "111"]</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5182,8 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>positive example:[, aa, abaa, abab, ababaa, ababaaaa, ababab, abababaa, ababababaa, ababba],negative example:[]</t>
+          <t>positive example: [, aa, abaa, abab, ababaa, ababaaaa, ababab, abababaa, ababababaa, ababba],  
+negative example: [a, b, aba, abb, baa, bab, bba, bbb, aab, aaaaab]</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5200,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aabaaaa, abaaa, abaaaa, abaaaaa, baaa, baaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aabaaaa, abaaa, abaaaa, abaaaaa, baaa, baaaa, bbaaaa], negative example: [aa, aab, aba, abb, ba, bab, bba, bbb, aabaa, aabbaa]</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5217,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaabaaa, abbaaa, baaa], negative example: []</t>
+          <t>positive example: [, a, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaabaaa, abbaaa, baaa], negative example: [b, ab, aba, aaba, aabbaa, baaab, baba, bb, bbaa]</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5234,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, aabaaa, abaaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, aabaaa, abaaaa, baaaaa, bbaaaa], negative example:[a, b, aa, ab, ba, bb, aab, aba, baa, bbb]</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5251,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, aaaa, baa], negative example: []</t>
+          <t>positive example:[, a, aa, aaa, aaaa, baa], negative example:[b, ab, ba, bb, aba, abb]</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5268,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>positive example:[a, aab, ab, b],negative example:[]</t>
+          <t>positive example:[a, aab, ab, b],negative example:[aa, bb, ba, aaa]</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5285,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baa, baaa, baaaa],negative example:[]</t>
+          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baa, baaa, baaaa], negative example: [a, b, aba, abb, bab, baba, babb, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5302,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>positive example:[001, 1010, 10101, 110],negative example:[]</t>
+          <t>positive example:[001, 110, 10101, 1010],negative example:[000, 111, 1011, 0101]</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5319,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba], negative example: []</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba], negative example: [aa, aaa, ba, bb, baa, baaa, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5353,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>positive example: [, aabb, ba, baabb, babb, babbbabb, babbbb, bbb], negative example: [cabb]</t>
+          <t>positive example: [, aabb, ba, baabb, babb, babbbabb, babbbb, bbb], negative example: [abab, aaab, bbaa, abba, baba, aabba, baaab, ababab]</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5370,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>positive example:[/###a#/, /##/, /##a#/, /##b#/, /#/#/, /#a##/, /#a#/, /#a/, /#aa#/, /#b#/, //, /a#/],negative example:[]</t>
+          <t>positive example:[/###a#/, /##/, /##a#/, /##b#/, /#/#/, /#a##/, /#a#/, /#a/, /#aa#/, /#b#/, //, /a#/],negative example:[/#c/, /ab/, /a/b/, /#a#b#/, /##ab/, /#a#c#/, /#a##b/, /#a#d/, /#a#1/, /#a#*/, /#a#?/, /#a#+/]</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5404,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aaaaaa, aaab, aaba, aabb, bbaa, bbbbaa], negative example: []</t>
+          <t>positive example:["", "aa", "aaaa", "aaaaaa", "aaab", "aaba", "aabb", "bbaa", "bbbbaa"], negative example:["a", "b", "ab", "ba", "aba", "bab", "bba", "aab", "bbab", "abaa"]</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5421,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b", "bb"], negative example:["ab", "ba", "aba", "bab"]</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5438,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaaa, baaa],negative example:[a, aaa]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaaa, baaa],negative example:[a,aaa]</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5455,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: []</t>
+          <t>positive example:[, aa, aaaa, ab, ba, bb], negative example:[a, b, aab, aba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5472,8 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 01, 010, 0100, 010010, 0110, 1, 10, 1001, 101, 1011, 101101, 11, 1101],negative example:[]</t>
+          <t>positive example:["", "0", "00", "0010", "01", "010", "0100", "010010", "0110", "1", "10", "1001", "101", "1011", "101101", "11", "1101"],  
+negative example:[]</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5507,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 000, 00010, 001, 0010, 00100, 001010, 00110, 010], negative example: []</t>
+          <t>positive example:[, 00, 000, 00010, 001, 0010, 00100, 001010, 00110, 010], negative example:[1, 01, 011, 0110, 0111, 101, 110, 111]</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5524,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, ab], negative example: [ac]</t>
+          <t>positive example:[, a, aa, aaa, ab], negative example:[b, ba, aba, aab, baaa]</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5541,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>positive example:[aabbbabb, ababbbabb, abbabb, abbabbbabb, abbbaabb, abbbab, abbbababb, abbbabb, abbbabbb, abbbb, abbbbabb, abbbbb, b, babb, bbabb, bbbabb],negative example:[]</t>
+          <t>positive example: [aabbbabb, ababbbabb, abbabb, abbabbbabb, abbbaabb, abbbab, abbbababb, abbbabb, abbbabbb, abbbb, abbbbabb, abbbbb, b, babb, bbabb, bbbabb], negative example: [aa, aab, aaba, ab, aba, abaa, abab, abba, abbaa, baa, baab, baba, bba, bbaa, bbab, bbba]</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5558,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example: [, a, aa, b, bb, bbb, bbbb], negative example: [ab, ba, aba, bab, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5575,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: []</t>
+          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: [a, b, aab, aba, baa, bab, bba, abb]</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5592,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 010010, 01010, 0110, 1, 1001, 101, 10101, 101101, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 010010, 01010, 0110, 1, 1001, 101, 10101, 101101, 11, 1101],negative example:[01,10]</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5609,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, baab, baabaab], negative example: []</t>
+          <t>positive example:[, a, aa, b, baab, baabaab], negative example:[ba, baaa, abaa, baba, aabaa]</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5626,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, baaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, baaaa, baaaaa, bbaaaa],negative example:[aa, ab, ba, bb, b, a, aba, abb, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5643,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 00010, 001, 0010, 00100, 001010, 00110, 010],negative example:[]</t>
+          <t>positive example:[, 00, 000, 00010, 001, 0010, 00100, 001010, 00110, 010],negative example:[1, 01, 011, 0110, 0111, 101, 1010, 110, 1100, 111]</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5660,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba],negative example:[]</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba], negative example: [aa, aaa, aaaa, ba, bb, baa, bba, bbb, abaa, abab]</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5677,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaaa, abaa, abaaa, abaaaa, ababaaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaaa, abaa, abaaa, abaaaa, ababaaa, baaaa, bbaaa],negative example:[a, b, ab, aba, abb, baaab, baba, bbb]</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5694,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaa, aaaa, abaa, abaaa, abaaaa, abbaaa, baa], negative example: []</t>
+          <t>positive example: [, aa, aaa, aaaa, abaa, abaaa, abaaaa, abbaaa, baa], negative example: [b, ab, aba, abb, baaaab, baba, bb, bbaa]</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5711,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 000, 0000, 01, 10],negative example:[]</t>
+          <t>positive example:["", "0", "00", "000", "0000", "01", "10"], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5745,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>positive example:[abaab, b, baaaabaab, baaab, baaabaab, baaabaabaab, baabaaabaab, baabaab, baabbaab],negative example:[]</t>
+          <t>positive example: [abaab, b, baaaabaab, baaab, baaabaab, baaabaabaab, baabaaabaab, baabaab, baabbaab], negative example: [aa, aab, abaa, baaa, baa, baaba, baba, bb, bbaa]</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5762,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 000, 001, 010, 100], negative example: [0000]</t>
+          <t>positive example:[, 00, 000, 001, 010, 100],negative example:[0000]</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5779,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>positive example:[, aabbabab, abab, ababab, abbaba, abbabaab, abbabab, abbabababbabab, abbababb, abbabb, abbabbabab, abbbabab, bbabab],negative example:[]</t>
+          <t>positive example: [, aabbabab, abab, ababab, abbaba, abbabaab, abbabab, abbabababbabab, abbababb, abbabb, abbabbabab, abbbabab, bbabab], negative example: [aabba, baba, abbaa, abababa, bbaa, aababba, bababab, aaabbb, ababba, bbaab]</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5796,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aabba, aba, abb, abba, abbaa, abbaabba, abbba, abbbba, bba], negative example: []</t>
+          <t>positive example: [, aa, aabba, aba, abb, abba, abbaa, abbaabba, abbba, abbbba, bba], negative example: [ab, aab, bab, baba, babb, bbaba, bbbaa, bbbab, bbbbaa]</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5813,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 010, 0100, 01000, 01000100, 010100, 01100, 1, 10011, 101, 101011, 1011, 10111, 10111011, 11, 111], negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 010, 0100, 01000, 01000100, 010100, 01100, 1, 10011, 101, 101011, 1011, 10111, 10111011, 11, 111], negative example: [01, 10, 001, 100, 0110, 1001, 1010, 1100, 0001, 1110]</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5830,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa], negative example: [aa, aaa, aba, baa, abba, baba, bbb]</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5847,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, bb, bbb, bbbb, bbbbbb], negative example: []</t>
+          <t>positive example: [, a, aa, bb, bbb, bbbb, bbbbbb], negative example: [b, ab, ba, aab, aba, bba, baba]</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5881,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abb, b, ba, bba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abb, b, ba, bba],negative example:[aa, aaa, aaaa, aabaa, aabbaa]</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5898,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>positive example:[001, 001001, 1010, 110],negative example:[]</t>
+          <t>positive example:[001, 001001, 1010, 110], negative example:[000, 111, 0101, 1001]</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5915,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0010, 01, 010, 0100, 010010, 0110, 10, 1001, 101, 1011, 11, 1101],negative example:[]</t>
+          <t>positive example:[, 00, 0010, 01, 010, 0100, 010010, 0110, 10, 1001, 101, 1011, 11, 1101], negative example:[001, 011, 100, 110, 0001, 0011, 0101, 0111, 1000, 1010, 1100, 1110]</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5932,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1010],negative example:[]</t>
+          <t>positive example:[, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1010],negative example:[0, 1, 00, 11, 000, 111, 01001, 1001, 1100, 10101]</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5949,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>positive example:[aabaa, aba, abaa, abaaa, abba, abbaa, abbaaa, b, baa],negative example:[]</t>
+          <t>positive example:[aabaa, aba, abaa, abaaa, abba, abbaa, abbaaa, b, baa],negative example:[aa, a, abab, bab, baba, bbbb, aaaa, ababab, bbaab]</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5966,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 001001, 1010, 110],negative example:[]</t>
+          <t>positive example:[, 001, 001001, 1010, 110], negative example:[000, 1001, 1110, 1011]</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5983,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 001010, 010, 0100, 0101, 01010, 010100, 0101010, 010101010, 010110, 1010],negative example:[]</t>
+          <t>positive example:[, 0, 001010, 010, 0100, 0101, 01010, 010100, 0101010, 010101010, 010110, 1010], negative example:[1, 01, 011, 0110, 0111, 101, 1011, 110, 1101, 111]</t>
         </is>
       </c>
     </row>
@@ -5988,7 +6000,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>positive example: [, #, #/, /, /#, //, a, aa, b], negative example: []</t>
+          <t>positive example: [, #, #/, /, /#, //, a, aa, b], negative example: [c, ab#, a/b, /a/, b#a, ##, a#b]</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6017,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>positive example:[aabababa, aabababababa, abaababababa, ababaabababa, ababaabababababa, ababab, abababa, abababaa, abababaababa, ababababaaba, ababababab, abababababa, abababababaa, abababababba, ababababba, ababababbaba, abababbaba, abababbababa, ababbababa, ababbabababa, abbabababa, abbababababa, bababa, bababababa, bbb, bbbbb],negative example:[aababababa, abaabababa, ababaababa, abababaaba, ababababaa]</t>
+          <t>positive example:[aabababa, aabababababa, abaababababa, ababaabababa, ababaabababababa, ababab, abababa, abababaa, abababaababa, ababababaaba, ababababab, abababababa, abababababaa, abababababba, ababababba, ababababbaba, ababbaba, ababbababa, ababbabababa, abbabababa, abbababababa, bababa, bababababa, bbb, bbbbb],negative example:[aababababa,abaabababa,ababaababa,abababaaba,ababababaa]</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6034,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaaa, aaaaab, aaaab, aaaabb, aaab, abaab],negative example:[]</t>
+          <t>positive example:[aa, aaaa, aaaaab, aaaab, aaaabb, aaab, abaab], negative example:[a, b, ab, ba, bb, aab, abaa]</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6051,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba], negative example: []</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba], negative example: [aa, bb, aaa, bbb, ababab, bba, aabb, abba, baab, abab]</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6068,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, ab, abb, abbb], negative example: []</t>
+          <t>positive example: [, a, aa, aaa, ab, abb, abbb], negative example: [b, ba, baa, bba, baba, bb, bbb]</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6085,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>positive example:[aab, aabaaab, abaaaab, abaaab, abaab, abaabaaab, abaabb, b, baaab, bbaaab],negative example:[]</t>
+          <t>positive example: [aab, aabaaab, abaaaab, abaaab, abaab, abaabaaab, abaabb, b, baaab, bbaaab], negative example: [aa, aaa, abba, baaa, baba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6102,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, bb], negative example: []</t>
+          <t>positive example:["", "a", "aa", "b", "bb"], negative example:["ab", "ba", "aaaab", "aab", "aba"]</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6119,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>positive example: [, ab, abaa, abab, ababab, abba, abbb, baab], negative example: []</t>
+          <t>positive example:[, ab, abaa, abab, ababab, abba, abbb, baab], negative example:[a, b, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6136,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000, 10],negative example:[]</t>
+          <t>positive example:[0, 00, 000, 10], negative example:[1, 01, 11, 111]</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6153,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabba, abb, abba, abbaa, abbb, bb, bba, bbba], negative example: []</t>
+          <t>positive example: [, a, aa, aabba, abb, abba, abbaa, abbb, bb, bba, bbba], negative example: [b, ba, bab, baa, aba, abab, baba, aaba, aaab, baaa]</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6170,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aab, aaba, aabaa, aabaaaba, aba, baba],negative example:[]</t>
+          <t>positive example: [, aaaba, aab, aaba, aabaa, aabaaaba, aba, baba], negative example: [ab, ba, bb, aaa, bbb, abab, baaa]</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6187,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, baab, bb],negative example:[]</t>
+          <t>positive example:[aab, ab, b, baab, bb], negative example:[aa, a, baaa, aba, baba]</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6204,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, ba], negative example: []</t>
+          <t>positive example:[, aa, aaba, ab, aba, abaa, abba, ba], negative example:[aab, baba, baaab, abab, bbaba, aabab, bab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6221,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>positive example:[001, 1010, 10101, 110],negative example:[]</t>
+          <t>positive example:[001, 1010, 10101, 110], negative example:[000, 111, 0101, 1001]</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6238,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaa, aaaa, abaaa, abbaaa, b, baa, baaa, baaaa, baab, bb, bbaaa], negative example: []</t>
+          <t>positive example: [, aa, aaa, aaaa, abaaa, abbaaa, b, baa, baaa, baaaa, baab, bb, bbaaa], negative example: [a, ab, aba, abab, abb, abbb, baba, babb, bba, bbab]</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6255,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bab, bb],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b", "bab", "bb"], negative example:["ab", "ba", "aba", "bba", "aab", "abb"]</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6272,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aabbaa, ababaa, abbaaa, baabaa, babaaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, aabbaa, ababaa, abbaaa, baabaa, babaaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: [a, b, aba, abb, baa, bbb, aab, bba, aaaab, bbbba, ababa, babab]</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6289,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[01, 10, 001]</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6306,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aabb, aabbaa, aabbaaaa, aabbaabbaa, aabbab, aabbba, aabbbb, ababaa, abbaaa, baabaa, babaaa, bbaaaa], negative example: []</t>
+          <t>positive example:[, aa, aabb, aabbaa, aabbaaaa, aabbaabbaa, aabbab, aabbba, aabbbb, ababaa, abbaaa, baabaa, babaaa, bbaaaa], negative example:[a, b, aaa, bbb, aba, bab, abbb, baaa, ababababab, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6323,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>positive example:[aa, aab, ab, b],negative example:[ac]</t>
+          <t>positive example:[aa, aab, ab, b], negative example:[ba, bb, aaa, aba]</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6340,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>positive example:[, 00110010101, 010010101, 0101, 01010101, 010110010101, 011000101, 01100010101, 01100101, 011001010, 01100101001, 0110010101, 011001010101, 01100101011, 011001011, 0110010110010101, 01100110101, 011010010101, 011010101, 01110010101, 10010101, 110010101],negative example:[]</t>
+          <t>positive example:[, 00110010101, 010010101, 0101, 01010101, 010110010101, 011000101, 01100010101, 01100101, 011001010, 01100101001, 0110010101, 011001010101, 01100101011, 011001011, 0110010110010101, 01100110101, 011010010101, 011010101, 01110010101, 10010101, 110010101], negative example:[0, 1, 00, 11, 000, 111, 0000, 1111, 010, 101, 0011, 1100, 0110, 1001, 0100, 1011, 001, 110, 011, 100]</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6357,8 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>positive example: [, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1010], negative example: []</t>
+          <t>positive example:["", "0010", "001010", "0100", "010010", "0101", "01010", "010100", "0101001010", "010110", "0110", "011010", "1010"],  
+negative example:["2", "1112", "0002", "01020", "10102", "1102", "120", "2010", "210", "2110"]</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6375,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6392,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aabbab, abba, abbaab, abbab, abbabb, abbb, bb, bbab, bbbab],negative example:[]</t>
+          <t>positive example: [, a, aa, aabbab, abba, abbaab, abbab, abbabb, abbb, bb, bbab, bbbab], negative example: [b, ba, bab, baba, babb, bba, bbba, bbbba]</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6409,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>positive example:['', 'aa', 'aaa', 'aaaba', 'aab', 'aaba', 'aabaa', 'aababa', 'aba', 'abaa'],negative example:[]</t>
+          <t>positive example: [, aa, aaa, aaaba, aab, aaba, aabaa, aababa, aba, abaa], negative example: [b, bb, bbb, baba, abab, bab, baaab, ababb, bba, abba]</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6426,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abaa, abab, ababab, abbb, baab],negative example:[]</t>
+          <t>positive example: [, ab, abaa, abab, ababab, abbb, baab], negative example: [a, b, aa, bb, aba, baa, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6443,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, baaa, baaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, baaa, baaaa], negative example: [a, b, aa, ab, ba, bb, aab, aba, bba, aaaaab]</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6460,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, ab, abab, ba, bb], negative example: []</t>
+          <t>positive example: [, aa, aaaa, ab, abab, ba, bb], negative example: [a, b, aba, abb, baa, bbb, aab]</t>
         </is>
       </c>
     </row>
@@ -6464,7 +6477,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>positive example:[abaabb, baab, baabb, babb, bbaaab, bbaaabb, bbaab, bbaabb, bbaabbb, bbabb, bbbaabb],negative example:[]</t>
+          <t>positive example: [abaabb, baab, baabb, babb, bbaaab, bbaaabb, bbaab, bbaabb, bbaabbb, bbabb, bbbaabb], negative example: [a, b, aa, ab, ba, bb, aaa, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6511,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>positive example:[aababa, aba, abaaba, abab, ababa, ababaa, abababa, abba, b, baba],negative example:[]</t>
+          <t>positive example: [aababa, aba, abaaba, abab, ababa, ababaa, abababa, abba, b, baba], negative example: [aa, a, bb, babab, baa, abababab, ab, ba, aaa, baaa]</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6528,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 001010, 010010, 0101, 01010, 010100, 010101010, 0110, 1010],negative example:[]</t>
+          <t>positive example:["", "0", "001010", "010010", "0101", "01010", "010100", "010101010", "0110", "1010"], negative example:["1", "01", "10", "100", "101", "110", "0100", "01001", "01011", "0111"]</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6545,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, bb, bbb, bbbb], negative example: []</t>
+          <t>positive example: [, a, aa, bb, bbb, bbbb], negative example: [ab, ba, b, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6562,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>positive example:[, aabbbbaababaabab, ab, abaabbbbaaababaabab, abaabbbbaababaaabab, abaabbbbaababaabab, abaabbbbaababaababaabbbbaababaabab, abaabbbbbaababaabab, ababaabbbbaababaabab, baaabbbbaababaabab],negative example:[abaabbbaababaabab, abaabbbbaabababab, abaabbbbababaabab]</t>
+          <t>positive example:[, aabbbbaababaabab, ab, abaabbbbaaababaabab, abaabbbbaababaaabab, abaabbbbaababaabab, abaabbbbaababaababaabbbbaababaabab, abaabbbbbaababaabab, ababaabbbbaababaabab, baaabbbbaababaabab],negative example:[abaabbbaababaabab,abaabbbbaabababab,abaabbbbababaabab]</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6579,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 0000, 01, 010, 10, 1001, 101, 1011, 11, 1101, 111],negative example:[]</t>
+          <t>positive example: [, 00, 000, 0000, 01, 010, 10, 1001, 101, 1011, 11, 1101, 111], negative example: []</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6596,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aabbaba, abbaaba, abbab, abbaba, abbabaa, abbabaabbaba, abbba, abbbbaba, b, bbaba],negative example:[]</t>
+          <t>positive example: [aaba, aabbaba, abbaaba, abbab, abbaba, abbabaa, abbabaabbaba, abbba, abbbbaba, b, bbaba], negative example: [aa, ab, aba, abaa, abab, abba, abbb, ba, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6613,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, ab, abaa, abaaaaab, abaaab, abaaabaaab, abaaabab, abaaba, abab, ababaaab, ababab, abbaab, abbbab, baaaab], negative example: []</t>
+          <t>positive example:[, aaab, ab, abaa, abaaaaab, abaaab, abaaabaaab, abaaabab, abaaba, abab, ababaaab, ababab, abbaab, abbbab, baaaab], negative example:[a, b, aaa, bbb, abaabba, ababba, abbaaabb, babaab, bbaaab, bbabaa]</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6630,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>positive example:[, aababa, aababababa, ababaa, ababaababa, abababab, ababababa, ababababaa, ababababb, ababababbaba, ababbaba, ababbabababa, ababbbaba, babababa, bbabababa],negative example:[]</t>
+          <t>positive example: [, aababa, aababababa, ababaa, ababaababa, abababab, ababababa, ababababaa, ababababb, ababababbaba, ababbaba, ababbabababa, ababbbaba, babababa, bbabababa], negative example: [a, b, aa, bb, ab, ba, aaa, bbb, aba, bab, abab, baba, ababab, bababa, ababababab]</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6647,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, baa, baaa],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "ba", "baa", "baaa"], negative example:["b", "bb", "ab", "aba", "aab", "bab"]</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6664,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baaaa], negative example:[a, b, aa, ab, ba, bb, aab, aba, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -6668,7 +6681,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, aabb, ab],negative example:[aa]</t>
+          <t>positive example:[aaab, aab, aabb, ab], negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6732,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abaa, abab, ababab, abba, abbb, baab],negative example:[]</t>
+          <t>positive example:["", "ab", "abaa", "abab", "ababab", "abba", "abbb", "baab"], negative example:["a", "b", "aba", "bab", "bba", "aab", "baba", "aaab"]</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6749,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example: []</t>
+          <t>positive example:[, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101],negative example:[001, 011, 100, 110, 0101, 1010, 1100, 0011]</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6766,8 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10101, 101011, 1010110101, 1011, 101101, 11, 1101, 110101], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10101, 101011, 1010110101, 1011, 101101, 11, 1101, 110101],  
+negative example: [01, 10, 0011, 1100, 010011, 101100, 000111, 111000, 01010101, 10101010]</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6784,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, aaaa, b, bb, bbb], negative example: []</t>
+          <t>positive example:[, a, aa, aaa, aaaa, b, bb, bbb], negative example:[ab, ba, aba, bab, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6801,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 01010, 0110, 1, 1001, 101, 10101, 1011, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 0100, 01010, 0110, 1, 1001, 101, 10101, 1011, 11, 1101],negative example:[01,10]</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6818,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baa, baaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, abaaa, baa, baaaa], negative example: [aa, ab, ba, bb, aab, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6835,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 0010, 01, 010, 0100, 0110, 10],negative example:[]</t>
+          <t>positive example:["", "00", "000", "0010", "01", "010", "0100", "0110", "10"], negative example:["2", "1112", "a", "101a", "01b"]</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6852,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaaaa, aaaaaaa, aaaaaaaa, aaaaaaaaaaa, aabaaaa, ab, abaaaaa, ba, baaaaaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaaaa, aaaaaaa, aaaaaaaa, aaaaaaaaaaa, aabaaaa, ab, abaaaaa, ba, baaaaaa],negative example:[a, b, aba, abb, bba, bbb, aaba, abab, baba, baaaab, aaabbb]</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6869,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>positive example:["", "aa", "aaaa", "ab", "ba", "bb"],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: [a, b, aab, aba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -6872,7 +6886,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>positive example:[0010, 01, 010, 0100, 011, 1, 10, 110],negative example:[]</t>
+          <t>positive example:[0010, 01, 010, 0100, 011, 1, 10, 110], negative example:[000, 00, 0, 1000, 1110]</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6903,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11"], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6920,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 0000, 000000, 010],negative example:[]</t>
+          <t>positive example:[, 00, 000, 0000, 000000, 010], negative example:[0, 1, 01, 10, 011, 100]</t>
         </is>
       </c>
     </row>
@@ -6923,7 +6937,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>positive example:[, a, b, bb],negative example:[]</t>
+          <t>positive example:[, a, b, bb, aa, ab, ba, aab, bba, abab], negative example:[c, ac, bc, abc, aabbc, x, 1, @]</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6954,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, baa, baaa, baabaa],negative example:[]</t>
+          <t>positive example:[, a, aa, ba, baa, baaa, baabaa], negative example:[b, bb, ab, aba, aab, baba]</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6971,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>positive example: [, ab, ababba, abba, abbaabba, abbaba, abbba, abbbba, ba], negative example: []</t>
+          <t>positive example: [, ab, ababba, abba, abbaabba, abbaba, abbba, abbbba, ba], negative example: [a, b, aa, bb, aba, bab, baa, aab, abab, baba, ababab, babbab, abababb, babaab]</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6988,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>positive example:[a, aaba, aba, ababa, ababbba, abbba, b, ba, bba],negative example:[]</t>
+          <t>positive example:[a, aaba, aba, ababa, ababbba, abbba, b, ba, bba], negative example:[aa, ab, abb, abab, abbb, bb, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -6991,7 +7005,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>positive example:["", "aa", "ab", "abaa", "abaaaa", "abab", "ababaa", "abba", "abbb", "baaa"],negative example:[]</t>
+          <t>positive example:[, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa], negative example:[a, b, aba, abb, baa, bab, bba, bbb, aab, aaba]</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7022,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, ba], negative example: []</t>
+          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, ba], negative example: [b, bb, aab, aabab, abab, baa, baba]</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7039,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, b], negative example:[ba, aba, aaba, bab, aaabbb, abab]</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7056,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaab, aba, abaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaab, aba, abaa], negative example: [a, aa, b, bb, ab, ba, baa, aab, baba]</t>
         </is>
       </c>
     </row>
@@ -7059,7 +7073,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>positive example: [, /###/, /##/, /#/##/, /#a###/, /#a##/, /#a##//#a##/, /#a#/, /#a#a##/, /#aa##/, /#b##/], negative example: []</t>
+          <t>positive example: [, /###/, /##/, /#/##/, /#a###/, /#a##/, /#a##//#a##/, /#a#/, /#a#a##/, /#aa##/, /#b##/], negative example: [/#/, /#a/, /#b/, /#ab/, /#ba/, /#a/b/, /#a#b/, /#a##b/, /#a##b#/, /#a##b##/]</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7090,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 0000, 00010, 0010, 00100, 00110, 010, 1, 101, 11, 11001, 1101, 11011, 111, 11101], negative example: [001, 110]</t>
+          <t>positive example:[, 0, 00, 000, 0000, 00010, 0010, 00100, 00110, 010, 1, 101, 11, 11001, 1101, 11011, 111, 11101],negative example:[001,110]</t>
         </is>
       </c>
     </row>
@@ -7093,7 +7107,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 001010, 01, 010, 0100, 010010, 0101, 01010, 010100, 01010010, 0101010, 010110, 0110, 011010, 1, 10, 1001, 100101, 101, 1010, 101001, 10101, 1010101, 101011, 10101101, 1011, 101101, 11, 1101, 110101], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 001010, 01, 010, 0100, 010010, 0101, 01010, 010100, 01010010, 0101010, 010110, 0110, 011010, 1, 10, 1001, 100101, 101, 1010, 101001, 10101, 1010101, 101011, 10101101, 1011, 101101, 11, 1101, 110101], negative example: [001, 0001, 0111, 01001, 1000, 1011, 1100, 1110, 010011, 011001, 100110, 101100, 110010, 111001]</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7124,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example: [, a, aa, b, ba, baa, bba], negative example: [ab, aba, abb, aab, bbb, aaaab, baba]</t>
         </is>
       </c>
     </row>
@@ -7127,7 +7141,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -7144,7 +7158,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>positive example:[aaabb, aab, aababb, aabb, aabbb, ab, abb],negative example:[]</t>
+          <t>positive example:[aaabb, aab, aababb, aabb, aabbb, ab, abb],negative example:[ba, baa, aba, bba, aaabba, a, b]</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7175,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, aaaa, aaaaa, aab, aba, abb, baa, bbaa], negative example: []</t>
+          <t>positive example: [, a, aa, aaa, aaaa, aaaaa, aab, aba, abb, baa, bbaa], negative example: [abab, baba, aabb, abba, baab, bbaaab]</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7226,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa],negative example:[]</t>
+          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa], negative example: [a, b, aba, abb, baa, bab, bba, bbb, aab, baba]</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7243,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, aaaaa, ab, abaaa, abaaaaaa, ababaaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example: [, aaa, aaaaa, ab, abaaa, abaaaaaa, ababaaa, baaaa, bbaaa], negative example: [a, b, aaab, aba, abb, baaab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7260,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ab, abab, ba, bb],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, abab, ba, bb], negative example: [a, b, aab, aba, baa, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7277,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7294,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[a, abb]</t>
+          <t>positive example:[aab, ab, b],negative example:[a,abb]</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7311,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abab, abb, abbb, b],negative example:[]</t>
+          <t>positive example: [, a, aab, ab, abab, abb, abbb, b], negative example: [ba, aaabbb, aba, abbbb, aaba, abba]</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7328,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, ba, bab, babb, bb, bbb, bbbb], negative example: []</t>
+          <t>positive example: [, a, aa, b, ba, bab, babb, bb, bbb, bbbb], negative example: [ab, aba, abb, abab, abba, baba, bbaa, bbaab, abbb, aab]</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7345,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>positive example:[aa, ab, ba, bb, aab, aba, abb, baa, bab, bba, bbb],negative example:[a, b, c, ac, bc, abc, cab]</t>
+          <t>positive example:[ab, bb, aab, bba, aaaa, bbbb, abab],negative example:[b, a, ba, aaab, bbbba]</t>
         </is>
       </c>
     </row>
@@ -7348,7 +7362,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aab, aaba, aabaab, ab, abaab, ababb, abbb, bab],negative example:[]</t>
+          <t>positive example: [, aaab, aab, aaba, aabaab, ab, abaab, ababb, abbb, bab], negative example: [aaa, aabaa, abbab, b, baa, baaa, baba, bb, bba, bbab]</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7379,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 00010, 001, 0010, 00100, 001010, 0011, 010, 1010], negative example: []</t>
+          <t>positive example:[, 00, 00010, 001, 0010, 00100, 001010, 0011, 010, 1010], negative example:[011, 0101, 1001, 110, 1110, 1011, 01011, 0110, 1101]</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7396,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 010, 0100, 010010, 01010, 0110, 1, 1001, 101, 10101, 1011, 101101, 11],negative example:[01, 10]</t>
+          <t>positive example: [, 0, 00, 010, 0100, 010010, 01010, 0110, 1, 1001, 101, 10101, 1011, 101101, 11], negative example: [01, 10]</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7413,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, abbaaa, baaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, abaaa, abbaaa, baaaa, bbaaaa], negative example: [a, b, aa, bb, ab, ba, aab, bba, abb, baa]</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7430,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, aab, ab, aba],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, aab, ab, aba], negative example:[a, b, ba, bb, baa, bbb]</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7447,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>positive example:[, aa, abaa, abaaabaa, abab, ababaa, abba, baaa, baab, baba, babaaa],negative example:[]</t>
+          <t>positive example: [, aa, abaa, abaaabaa, abab, ababaa, abba, baaa, baab, baba, babaaa], negative example: [a, b, aba, abb, baa, babb, ababa, ababb, baaba, babab, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -7450,7 +7464,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaa, aabaaa, abaa, abaaa, abaaaa, ababaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaa, aabaaa, abaa, abaaa, abaaaa, ababaaa, abbaaa, baaa],negative example:[b, bb, bbb, ab, abb, aab, ba, bba, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7481,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, abaaa, baaa, baaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, abaaa, baaa, baaaa],negative example:[a, b, aa, ab, ba, bb, aab, aba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7498,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abb, abbb, b, ba, bba, bbba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abb, abbb, b, ba, bba, bbba], negative example:[aa, aab, aabaa, aabba, aabbb, aabbbb, aaaa, aaaab, aaaaa, aaaabb]</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7515,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abaa, abab, ababab, abba, baab],negative example:[]</t>
+          <t>positive example:[, ab, abaa, abab, ababab, abba, baab], negative example:[a, b, aa, bb, aba, baa, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -7518,7 +7532,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>positive example: [, /##/, /#/##/, /#a###/, /#a##/, /#a##//#a##/, /#a#/, /#a#a##/, /#b##/],negative example: []</t>
+          <t>positive example: [, /##/, /#/##/, /#a###/, /#a##/, /#a##//#a##/, /#a#/, /#a#a##/, /#b##/], negative example: [/a/, /#a/, /#ab#/, /#a#b/, /##a/, /#/#/, /#a#b#/, /#a#/b#/]</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7549,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 000, 00010, 001, 0010, 00100, 0010010, 00110, 010, 1, 101, 110, 11001, 1101, 11011, 1101101, 111, 11101], negative example: []</t>
+          <t>positive example: [, 0, 000, 00010, 001, 0010, 00100, 0010010, 00110, 010, 1, 101, 110, 11001, 1101, 11011, 1101101, 111, 11101], negative example: [01, 10, 011, 100, 0101, 1010, 0011, 1100, 00011, 11100]</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7566,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, ab, ba],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, ab, ba], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7583,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 0000, 010, 1, 1001, 101, 11, 111], negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 0000, 010, 1, 1001, 101, 11, 111], negative example: [01, 10, 011, 110, 001, 100, 1010, 0101]</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7600,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, ba, baa, baaa], negative example: []</t>
+          <t>positive example:[, a, aa, b, ba, baa, baaa],negative example:[ab, bb, aba, aab, baba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7617,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aabbaa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [, aa, aabbaa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa, bbaaaa], negative example: [a, b, aab, aba, abb, baa, bab, bba, aabab, ababa, babab, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7634,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7651,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>positive example:[0010010, 010, 0100010, 01001, 010010, 0100100, 010010010, 01010, 1, 10010],negative example:[]</t>
+          <t>positive example:[0010010, 010, 0100010, 01001, 010010, 0100100, 010010010, 01010, 1, 10010],negative example:[000, 0110, 1001, 1010, 1100, 111, 001100, 010011, 100001, 110011]</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7668,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 00010, 0010, 001010, 00110, 010], negative example: []</t>
+          <t>positive example:[, 0, 00, 000, 00010, 0010, 001010, 00110, 010], negative example:[1, 01, 011, 0111, 0101, 0011, 00011, 001011, 0100]</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7685,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, baaa, baaaa, bbaaa],negative example:[baa, caaa]</t>
+          <t>positive example:[aaa, aaaa, baaa, baaaa, bbaaa],negative example:[baa]</t>
         </is>
       </c>
     </row>
@@ -7688,7 +7702,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, ba, baa, bba], negative example: []</t>
+          <t>positive example:[, a, aa, b, ba, baa, bba], negative example:[ab, bb, aba, aab, bbb]</t>
         </is>
       </c>
     </row>
@@ -7722,7 +7736,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1, 10, 100, 11, 110],negative example:[12, 20]</t>
+          <t>positive example:[, 0, 00, 1, 10, 100, 11, 110], negative example:[01, 011, 101, 010, 0011, 1101]</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7753,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example: [, a, aa, b, ba, baa, bba], negative example: [ab, aba, abb, aab, baba, abba]</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7770,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>positive example:[, a, aabab, abab, ababbab, bab, babbab, bbab],negative example:[]</t>
+          <t>positive example: [, a, aabab, abab, ababbab, bab, babbab, bbab], negative example: [ba, bba, abba, baba, aaab, bbb, abababab]</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7787,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[a, abb]</t>
+          <t>positive example:[aab, ab, b],negative example:[a,abb]</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7804,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, aabaaa, abaaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, aabaaa, abaaaa, baaaaa, bbaaaa],negative example:[a, b, aa, ab, ba, bb, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -7807,7 +7821,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[2, 01a, a, 10b]</t>
         </is>
       </c>
     </row>
@@ -7824,7 +7838,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa], negative example: [a, b, aa, ab, ba, bb, aaa, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7855,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, ab, abb, ba], negative example: []</t>
+          <t>positive example:[, a, aa, aaa, ab, abb, ba], negative example:[b, bb, bbb, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7872,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, abb],negative example:[]</t>
+          <t>positive example:[aaab, aab, ab, abb],negative example:[a, b, aa, bb]</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7889,8 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 00100, 010, 0100, 01000, 01000100, 010100, 011, 01100, 1, 100, 10011, 101, 101011, 1011, 10111, 10111011, 11, 11011, 111], negative example: []</t>
+          <t>positive example:["", "0", "00", "000", "00100", "010", "0100", "01000", "01000100", "010100", "011", "01100", "1", "100", "10011", "101", "101011", "1011", "10111", "10111011", "11", "11011", "111"],  
+negative example:["2", "01a", "1010b", "1102", "a1", "b0", "abc", "1.0", "0-1"]</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7907,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa], negative example:[aa, aaa, aba, baa, abab, baba, bb]</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7924,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, ab, abab, ba, bb], negative example: []</t>
+          <t>positive example:[, aa, aaaa, ab, abab, ba, bb], negative example:[a, b, aba, abb, baa, bbb, aab]</t>
         </is>
       </c>
     </row>
@@ -7943,7 +7958,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abab, ba, bb],negative example:[]</t>
+          <t>positive example:["", "aa", "ab", "abab", "ba", "bb"], negative example:["a", "b", "aaa", "aba", "abb", "baa", "bab", "bba", "bbb"]</t>
         </is>
       </c>
     </row>
@@ -7960,7 +7975,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "0010", "01", "010", "0100", "010010", "01010", "0110", "1", "10", "1001", "101", "10101", "1011", "101101", "11", "1101"],negative example:[]</t>
+          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 010010, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 101101, 11, 1101], negative example: [001, 011, 100, 110, 111, 0001, 0111, 1000, 1100, 1111]</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7992,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaba, ab, aba, abaa, abba, ba],negative example:[]</t>
+          <t>positive example:[, a, aa, aaba, ab, aba, abaa, abba, ba],negative example:[b, bb, aab, baa, bab, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -7994,7 +8009,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>positive example:[001110, 010, 0111, 01110, 011100, 01111, 0111110, 1, 1110],negative example:[]</t>
+          <t>positive example:[001110, 010, 0111, 01110, 011100, 01111, 0111110, 1, 1110], negative example:[00, 000, 0110, 111, 1010, 1100, 1001, 0001]</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8026,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[aa, ab, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8043,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb], negative example: []</t>
+          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb], negative example: [a, b, aba, abb, baa, bab, bba, bbb, abaaaab]</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8060,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[caaa]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[aa, aab, baa, abaa]</t>
         </is>
       </c>
     </row>
@@ -8062,7 +8077,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabba, abb, abba, abbaa, abbb, abbbb, bb, bba, bbba], negative example: []</t>
+          <t>positive example: [, a, aa, aabba, abb, abba, abbaa, abbb, abbbb, bb, bba, bbba], negative example: [abab, baba, baa, b, ba, baaab, aaba, aabab, bab, babb]</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8094,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, ba], negative example: []</t>
+          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, ba], negative example: [baba, aabab, baaab, abab, bab, aab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8111,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "001010", "010010", "0101", "01010", "010100", "0101001010", "0110", "1010"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "001010", "010010", "0101", "01010", "010100", "0101001010", "0110", "1010"], negative example:["1", "01", "001", "0001", "010", "100", "110", "101", "0100", "1001"]</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8128,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[2, 01a, a, 10b]</t>
         </is>
       </c>
     </row>
@@ -8130,7 +8145,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaba, aba, ababa, ababbba, abbba, ba, bba],negative example:[]</t>
+          <t>positive example: [, a, aaba, aba, ababa, ababbba, abbba, ba, bba], negative example: [aa, ab, abb, abaa, abab, abba, b, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8162,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>positive example: [, aaabbaab, aab, aabbaab, abbaab, b, baa, baaab, baab, baabb, bab, bbaab], negative example: [baabaab]</t>
+          <t>positive example:[, aaabbaab, aab, aabbaab, abbaab, b, baa, baaab, baab, baabb, bab, bbaab],negative example:[baabaab]</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8179,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aabababaa, abaa, abaababaa, ababaabaa, abababa, abababaa, abababaaa, abababababaa, ababbaa, abbabaa, b, bababaa],negative example:[]</t>
+          <t>positive example:[, a, aa, aabababaa, abaa, abaababaa, ababaabaa, ababa, ababaa, ababaaa, ababababaa, ababbaa, abbabaa, b, bababaa],negative example:[ab, ba, aaba, abab, baba, aaab, bba, abba, aabb, bababa]</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8196,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb, bbb],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb, bbb], negative example:[ab, ba, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8213,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "01", "010", "0100", "010010", "0110", "10", "1001", "101", "1011", "11"],negative example:[]</t>
+          <t>positive example: [, 00, 01, 010, 0100, 010010, 0110, 10, 1001, 101, 1011, 11], negative example: [0, 1, 001, 011, 100, 110, 111, 0001, 0111, 1000, 1100, 1111]</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8230,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example: [001, 011, 100, 110, 0001, 0111, 1000, 1100]</t>
         </is>
       </c>
     </row>
@@ -8232,7 +8247,8 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>positive example: [, 0010, 00101010, 01001010, 01010010, 010101, 0101010, 01010100, 01010100101010, 010110, 0101101010, 011010, 101010], negative example: []</t>
+          <t>positive example: [, 0010, 00101010, 01001010, 01010010, 010101, 0101010, 01010100, 01010100101010, 010110, 0101101010, 011010, 101010],  
+negative example: [0, 1, 00, 11, 000, 010, 011, 100, 101, 110, 111, 0000, 0011, 0100, 0111, 1000, 1011, 1100, 1101, 1110, 1111]</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8265,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>positive example:[, 00101011001, 001011001, 01010011001, 010101001, 01010101, 010101011001, 010101100, 01010110001, 0101011001, 01010110010101011001, 01010110011, 010101101, 010101101001, 01010111001, 01011001, 010111001, 01101011001, 101011001],negative example:[]</t>
+          <t>positive example: [, 00101011001, 001011001, 01010011001, 010101001, 01010101, 010101011001, 010101100, 01010110001, 0101011001, 01010110010101011001, 01010110011, 010101101, 010101101001, 01010111001, 01011001, 010111001, 01101011001, 101011001], negative example: [0, 1, 00, 11, 010, 101, 0001, 0110, 1001, 1100, 001100, 010010, 101101, 110011, 00001111, 0101010, 1010101, 00110011, 010101010]</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8299,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>positive example:[, 010, 010010, 01010, 0101001010, 0101010, 0110, 01110],negative example:[]</t>
+          <t>positive example:[, 010, 010010, 01010, 0101001010, 0101010, 0110, 01110], negative example:[0, 1, 00, 11, 001, 110, 0100, 1010]</t>
         </is>
       </c>
     </row>
@@ -8300,7 +8316,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>positive example:[, aabb, ab, abab, ba],negative example:[]</t>
+          <t>positive example:[, aabb, ab, abab, ba], negative example:[a, b, aa, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8333,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ab, ba, bb],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: [a, b, aab, aba, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8350,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 010, 0110, 1, 101, 11, 111, 1111], negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 010, 0110, 1, 101, 11, 111, 1111], negative example: [01, 001, 10, 110, 1001, 011, 1010]</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8367,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, b, ab, ba, aab, bba, aba, bbb], negative example:[c, ac, bc, abc, a1, b2, 1a, 2b, @, #]</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8384,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baa, baaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, baa, baaaa],negative example:[a, b, aa, ab, ba, bb, aba, abb, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8401,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, ab, abab, ba, baba],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, ab, abab, ba, baba], negative example:[abba, baaab, bbabb, aabba, babba]</t>
         </is>
       </c>
     </row>
@@ -8402,7 +8418,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>positive example:[001010, 010, 010010, 01010, 0101010, 0110, 1, 1010],negative example:[]</t>
+          <t>positive example:[001010, 010, 010010, 01010, 0101010, 0110, 1, 1010],negative example:[000, 00100, 011, 1001, 101, 110, 1110]</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8435,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>positive example:['', 'aa', 'aababa', 'abab', 'ababa', 'ababaa', 'ababb', 'ababbaba', 'baba', 'bbaba'],negative example:[]</t>
+          <t>positive example: [, aa, aababa, abab, ababa, ababaa, ababb, ababbaba, baba, bbaba], negative example: [abaab, abababab, abba, abbab, b, baab, bba, bbab]</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8452,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb, bbb],negative example:[]</t>
+          <t>positive example: [, a, aa, b, bb, bbb], negative example: [ab, ba, aab, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8469,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaa, aaaaa, aaab, ab, aba, abaa, abb],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaa, aaaaa, aaab, ab, aba, abaa, abb], negative example:[b, ba, bb, aab, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8486,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, aabb, aabbaabb, ab, abaa, abaaaa, abab, ababaa, abba, abbb, ba, baaa, bb, bbaa],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, aabb, aabbaabb, ab, abaa, abaaaa, abab, ababaa, abba, abbb, ba, baaa, bb, bbaa], negative example: [a, b, aba, abb, bab, bba, bbb, aab, baba, ababa, bbbaa, aabab]</t>
         </is>
       </c>
     </row>
@@ -8487,7 +8503,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aabaa, aba, abaa, abaaa, abaabaa, baa],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, aabaa, aba, abaa, abaaa, abaabaa, baa],negative example:[b, ab, aab, ba, bab, abab, aaba, baaaab, aaab, baab]</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8520,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa], negative example: [a, b, aa, ab, ba, bb, aaa, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8537,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "1", "11"],negative example:[]</t>
+          <t>positive example:[, 0, 1, 11],negative example:[00, 01, 10, 000]</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8554,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aabaaa, abaaa, ababaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aabaaa, abaaa, ababaaa, abbaaa, baaa], negative example: [aa, aab, ab, aba, abb, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8571,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aab, aaba, aabaaaba, aabb, aabbb, aabbbb, aba, baba], negative example:[aabaa]</t>
+          <t>positive example:[, aaaba, aab, aaba, aabaaaba, aabb, aabbb, aabbbb, aba, baba],negative example:[aabaa]</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8588,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0010, 001010, 0100, 010010, 01010, 010100, 0101001010, 010110, 01011010, 0110, 011010],negative example:[0101, 1010]</t>
+          <t>positive example: [, 00, 0010, 001010, 0100, 010010, 01010, 010100, 0101001010, 010110, 01011010, 0110, 011010], negative example: [0101, 1010]</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8605,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaa, abaaa, b, baa, baaa, baaaa, baab, bb, bbaaa], negative example: []</t>
+          <t>positive example: [, aa, aaa, abaaa, b, baa, baaa, baaaa, baab, bb, bbaaa], negative example: [a, ab, aba, abb, baba, babb, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8622,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>positive example:[00, 0000, 000100, 0010, 00100, 001000, 00100100, 001100, 0100, 1],negative example:[]</t>
+          <t>positive example: [00, 0000, 000100, 0010, 00100, 001000, 00100100, 001100, 0100, 1], negative example: [01, 10, 011, 101, 010, 0001, 1000, 110, 0110, 111]</t>
         </is>
       </c>
     </row>
@@ -8623,7 +8639,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "1", "11"],negative example:[]</t>
+          <t>positive example:[, 0, 1, 11], negative example:[2, 01a, a, 10b]</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8656,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba],negative example:[]</t>
+          <t>positive example:["", "aaab", "aaaba", "aab", "aaba", "aabaaaba", "ab", "aba", "bab", "baba"], negative example:["a", "b", "aa", "ba", "bb", "aaa", "aabaa", "abab", "babb", "baaa"]</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8673,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>positive example:[, aab, ab, abab, b],negative example:[]</t>
+          <t>positive example:[, aab, ab, abab, b], negative example:[aa, ba, aba, aaba, bb]</t>
         </is>
       </c>
     </row>
@@ -8674,7 +8690,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>positive example:[001110, 010, 0110, 0111, 01110, 011100, 01111, 011110, 0111110, 1, 1110],negative example:[]</t>
+          <t>positive example:[001110, 010, 0110, 0111, 01110, 011100, 01111, 011110, 0111110, 1, 1110],negative example:[000, 00100, 0100, 01100, 0111000, 01111000, 1000, 11000, 111000]</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8707,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>positive example: [, 00101, 001010101, 010010101, 01010, 010100101, 0101010, 010101001, 01010101, 010101011, 01010101101, 0101011, 0101101, 01011010101, 0110101, 1010101],negative example: []</t>
+          <t>positive example:[, 00101, 001010101, 010010101, 01010, 010100101, 0101010, 010101001, 01010101, 010101011, 01010101101, 0101011, 0101101, 01011010101, 0110101, 1010101],negative example:[0, 1, 00, 11, 010, 101, 0000, 1111, 0100, 1010, 0011, 1100, 010101010, 10101010]</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8741,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, baa, bbaa],negative example:[]</t>
+          <t>positive example:[, a, aa, baa, bbaa], negative example:[ab, ba, aba, baba, aab]</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8758,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aaaaaa, aabb, aabbbb, ab, abab, ba, baab, baabab, baba, bb, bbaa, bbbb, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, aaaaaa, aabb, aabbbb, ab, abab, ba, baab, baabab, baba, bb, bbaa, bbbb, bbbbaa], negative example: [a, b, aab, aba, abb, baa, bab, bba, aaab, aaba, abaa, abbb, baaa, babb, bbba, bbbbaba]</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8775,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>positive example:[, aababa, abab, ababa, ababaa, ababaababa, ababb, baba, bbaba],negative example:[]</t>
+          <t>positive example:[, aababa, abab, ababa, ababaa, ababaababa, ababb, baba, bbaba], negative example:[a, b, aa, bb, aaa, bbb, ab, ba, aabb, bbaa]</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8792,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b", "bb", "ab", "aab", "abb", "aabb", "ba", "bba", "bab", "bbaa"], negative example:["c", "ac", "ca", "abc", "bac", "aac", "bbcb"]</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8809,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aab, aaba, aabaab, ab, bab],negative example:[]</t>
+          <t>positive example:[, aaab, aab, aaba, aabaab, ab, bab], negative example:[baa, baaa, bba, bbb, aaa, b]</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8826,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaba, ab, aba, abaa, abb, abba, ba, bba],negative example:[]</t>
+          <t>positive example: [, aa, aaba, ab, aba, abaa, abb, abba, ba, bba], negative example: []</t>
         </is>
       </c>
     </row>
@@ -8827,7 +8843,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 0010, 01, 010, 0100, 010010, 0110, 10, 1001, 101, 1011, 101101, 11, 1101], negative example: []</t>
+          <t>positive example: [, 00, 0010, 01, 010, 0100, 010010, 0110, 10, 1001, 101, 1011, 101101, 11, 1101], negative example: [0, 1, 001, 011, 100, 110, 0101, 1010, 1100, 0011]</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8877,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>positive example: [, /##/, /#a#/, /#a#//#a#/, /#aa#/, /#b#/], negative example: []</t>
+          <t>positive example: [, /##/, /#a#/, /#a#//#a#/, /#aa#/, /#b#/], negative example: [/a/, /#/, /#ab/, /#a#b#/, /#c#/, /#a#b/]</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8894,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abaa, abab, ababab, abba, abbb, baab],negative example:[]</t>
+          <t>positive example: [, ab, abaa, abab, ababab, abba, abbb, baab], negative example: [a, b, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -8895,7 +8911,8 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "0000", "000100", "0010", "00100", "001000", "00100100", "001100", "0100"],negative example:[]</t>
+          <t>positive example: [, 00, 0000, 000100, 0010, 00100, 001000, 00100100, 001100, 0100],  
+negative example: [1, 01, 011, 0101, 0011, 00011, 010, 0110, 100, 101]</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8929,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 0000, 00000],negative example:[0002, 0020, 0200, 2000]</t>
+          <t>positive example:[00, 000, 0000, 00000], negative example:[0, 1, 01, 10, 11]</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8946,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abbb, b, ba, bba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abbb, b, ba, bba], negative example:[aa, aab, aabaa, baaa, bbaba]</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8963,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "0011", "001100", "0100", "0110", "01100", "011000", "011001100", "011100", "1", "100011", "1001", "10011", "100110011", "100111", "1011", "1100", "110011"],negative example:[]</t>
+          <t>positive example: [, 0, 0011, 001100, 0100, 0110, 01100, 011000, 011001100, 011100, 1, 100011, 1001, 10011, 100110011, 100111, 1011, 1100, 110011], negative example: [01, 10, 001, 110, 0001, 1110, 0101, 1010, 0111, 1000]</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8980,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>positive example:[, a, aabaa, aba, abaa, abaaa, abaabaa, baa],negative example:[]</t>
+          <t>positive example: [, a, aabaa, aba, abaa, abaaa, abaabaa, baa], negative example: [b, ab, aab, ba, aaba, aaab, bab, abab]</t>
         </is>
       </c>
     </row>
@@ -8980,7 +8997,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ab, b, ba, bb, bbb],negative example:[]</t>
+          <t>positive example:[, a, aa, ab, b, ba, bb, bbb], negative example:[aba, abb, baa, bba, aab, aaaab]</t>
         </is>
       </c>
     </row>
@@ -8997,7 +9014,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 010101010, 1, 100101010, 10010101010, 101001010, 10100101010, 1010010101010, 1010100, 101010010, 10101001010, 101010100, 10101010010, 101010101, 1010101010, 10101010100, 10101010101010101010, 10101010110, 1010101011010, 101010110, 10101011010, 101011010, 10101101010, 101101010, 10110101010, 11, 1101010, 110101010, 11010101010],negative example:[]</t>
+          <t>positive example:["", "0", "00", "010101010", "1", "100101010", "10010101010", "101001010", "10100101010", "1010010101010", "1010100", "101010010", "10101001010", "101010100", "10101010010", "101010101", "1010101010", "10101010100", "10101010101010101010", "10101010110", "1010101011010", "101010110", "10101011010", "101011010", "10101101010", "101101010", "10110101010", "11", "1101010", "110101010", "11010101010"], negative example:["2", "01a", "10101b", "000111222", "abc", "101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101010101</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9048,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>positive example:[aababba, aba, abaabba, ababb, ababba, ababbaa, ababbaababba, ababbabba, abbba, b, babba],negative example:[]</t>
+          <t>positive example: [aababba, aba, abaabba, ababb, ababba, ababbaa, ababbaababba, ababbabba, abbba, b, babba], negative example: [aa, aab, aaba, ab, abaa, abab, ababa, abba, abbab, ba, baa]</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9065,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 00100, 010, 0100, 01000, 010100, 011, 01100, 1, 100, 10011, 101, 101011, 1011, 10111, 11, 11011, 111],negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 00100, 010, 0100, 01000, 010100, 011, 01100, 1, 100, 10011, 101, 101011, 1011, 10111, 11, 11011, 111], negative example: [001, 0101, 0110, 1000, 1010, 1100, 1101, 1110]</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9082,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aaaa, aaaaa, aab, bba, bbbba],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aaaa, aaaaa, aab, bba, bbbba], negative example: [ab, ba, aba, bab, baba, abab, aaba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9099,8 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 000, 00010, 0010, 00100010, 001010, 00110, 010], negative example: []</t>
+          <t>positive example:["", "00", "000", "00010", "0010", "00100010", "001010", "00110", "010"],  
+negative example:["1", "01", "011", "0110", "0101", "0011", "00011", "00101", "0100"]</t>
         </is>
       </c>
     </row>
@@ -9116,7 +9134,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, abaaaa, baaa, baaaaa],negative example:[aa, aaa, aba, baa, abab, baba, bb]</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9151,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa],negative example:[]</t>
+          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa], negative example: [a, b, aba, abb, baa, bab, bba, bbb, aab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -9150,7 +9168,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, abab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, abab, b], negative example:[aa, a, aba, bb]</t>
         </is>
       </c>
     </row>
@@ -9167,7 +9185,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1"],negative example:[]</t>
+          <t>positive example:[, 0, 1, 00, 01, 10, 11], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -9184,7 +9202,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>positive example:[aabababab, abaab, abaababab, ababaabab, ababab, abababa, abababaab, abababab, ababababab, ababababb, abababb, abababbabab, ababbab, abbabab, b, bababab],negative example:[]</t>
+          <t>positive example: [aabababab, abaab, abaababab, ababaabab, ababab, abababa, abababaab, abababab, ababababab, ababababb, abababb, abababbabab, ababbab, abbabab, b, bababab], negative example: [aa, aaaa, aabbaa, abba, bbb, baabba, bbaa, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9219,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>positive example:[aabaaa, abaa, abaaa, abaaaa, abaab, baa, baaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aabaaa, abaa, abaaa, abaaaa, abaab, baa, baaa, bbaaa],negative example:[a, b, ab, aba, aaba, baba, bbba, aabba]</t>
         </is>
       </c>
     </row>
@@ -9218,7 +9236,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b", "ba", "baa", "bba"], negative example:["c", "abab", "bbab", "aabbb", "abc"]</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9253,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa, bbaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, baaa, bbaaa], negative example: [a, b, ab, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9270,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aabba, abb, abba, abbaa, abbbb, bb, bba, bbba],negative example:[]</t>
+          <t>positive example: [, a, aa, aabba, abb, abba, abbaa, abbbb, bb, bba, bbba], negative example: [ab, b, baa, bab, baba, babb, bbb, bbbba]</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9287,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>positive example: [, a, aabb, ab, abb, abbabb, abbb, abbbb, bb], negative example: []</t>
+          <t>positive example:[, a, aabb, ab, abb, abbabb, abbb, abbbb, bb], negative example:[b, ba, baa, aba, aab, baba, aaab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9304,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaaba, aab, aaba, aabaaaba, aabaab, ab, aba, bab, baba],negative example:[]</t>
+          <t>positive example:[, aaab, aaaba, aab, aaba, aabaaaba, aabaab, ab, aba, bab, baba], negative example:[baa, baaa, bba, bbb, aaaab, abab, abba, babb, aaabaa, baaab]</t>
         </is>
       </c>
     </row>
@@ -9320,7 +9338,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[a, abb]</t>
+          <t>positive example:[aab, ab, b],negative example:[a,abb]</t>
         </is>
       </c>
     </row>
@@ -9337,7 +9355,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb], negative example:[ab, ba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9372,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, b, bab],negative example:[]</t>
+          <t>positive example: [aaab, aab, ab, b, bab], negative example: [aaa, aa, aba, ba, bba]</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9389,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abba, abbaab, abbab, abbb, b, ba],negative example:[aa]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abba, abbaab, abbab, abbb, b, ba], negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9406,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1, 000, 01, 10, 11], negative example:[2, 01a, a, 0110, 1010]</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9423,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 000, 01, 010, 0100, 0110],negative example:[]</t>
+          <t>positive example:[, 0, 00, 000, 01, 010, 0100, 0110], negative example:[1, 10, 100, 101, 011, 0011]</t>
         </is>
       </c>
     </row>
@@ -9422,7 +9440,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>positive example: [, a, aaa, aab, ab, abab, abb, b, baaa, bbaaa], negative example: []</t>
+          <t>positive example:[, a, aaa, aab, ab, abab, abb, b, baaa, bbaaa],negative example:[ba, baa, bba, abba, aaba, aaab, bbbaa, abaaa]</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9457,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, baaa],negative example:[aaa]</t>
+          <t>positive example:[aaaa, aaaaa, baaa], negative example:[aaa]</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9474,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa], negative example:[aa, ab, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -9473,7 +9491,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, bb, bbb], negative example: []</t>
+          <t>positive example: [, a, aa, b, bb, bbb], negative example: [ab, ba, aba, bab, bba, abb]</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9508,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 001, 00110, 010, 011, 0110, 01100, 0110110, 01110, 1, 100, 10001, 1001, 1001001, 10011, 101, 110, 11001], negative example: []</t>
+          <t>positive example: [, 0, 001, 00110, 010, 011, 0110, 01100, 0110110, 01110, 1, 100, 10001, 1001, 1001001, 10011, 101, 110, 11001], negative example: [01, 10, 0101, 1010, 011010, 100101, 0011, 1100, 000111, 111000]</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9525,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 010010, 0110, 1, 10, 1001, 101, 1011, 101101, 11, 1101], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 010010, 0110, 1, 10, 1001, 101, 1011, 101101, 11, 1101], negative example: [001, 011, 100, 110, 0101, 0111, 1010, 1100]</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9542,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaabaaa, abaabaaa, abbaaa, baaa], negative example: []</t>
+          <t>positive example: [, a, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaabaaa, abaabaaa, abbaaa, baaa], negative example: [b, bb, aab, aaba, abab, abba, baba, babb, bbaa, bbba]</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9559,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, baaa, bbaaa],negative example:[aaa]</t>
+          <t>positive example:[aaaa, aaaaa, baaa, bbaaa], negative example:[aaa]</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9576,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa],negative example:[]</t>
+          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba, abbb, baaa], negative example: [a, b, aba, abb, baa, bab, bba, bbb, aab, baba]</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9593,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "0010", "01", "010", "0100", "01010", "0110", "1", "10", "1001", "101", "10101", "1011", "11", "1101"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example:[001, 011, 100, 110, 0001, 0111, 1000, 1100]</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9610,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9627,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, baa, baaa, baaaa, baaabaaa, baabaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[, a, aaa, baa, baaa, baaaa, baaabaaa, baabaaa, bbaaa],negative example:[b, bb, ab, baba, aab, bbaaab, bbaabaa, ababaa]</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9644,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, abbaaaa, baaaa, baaaaa, baaaaaa, bbaaaa, bbbaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, abbaaaa, baaaa, baaaaa, baaaaaa, bbaaaa, bbbaaaa], negative example: [aa, ab, ba, bb, a, b, aba, abb, baa, bab, bba, bbb, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -9660,7 +9678,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>positive example:[, aab, ab, abab, b],negative example:[]</t>
+          <t>positive example:[, aab, ab, abab, b], negative example:[aa, ba, aba, bb, aaba]</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9695,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>positive example:[, a, ab, aba, abaa, ababa, abb, baa],negative example:[]</t>
+          <t>positive example: [, a, ab, aba, abaa, ababa, abb, baa], negative example: [aa, bb, aab, bba, abababab, babaab]</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9712,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: []</t>
+          <t>positive example:[, aa, aaaa, ab, ba, bb], negative example:[a, b, aaa, aba, baa, bbb]</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9729,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 0000, 001, 0010, 00100, 0011, 00110],negative example:[0012, 0020, 0210, 2010]</t>
+          <t>positive example:[00, 000, 0000, 001, 0010, 00100, 0011, 00110],negative example:[01, 010, 011, 0110, 10, 100, 101, 11]</t>
         </is>
       </c>
     </row>
@@ -9728,7 +9746,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1010],negative example:[]</t>
+          <t>positive example:[, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1010],negative example:[100, 1011, 1100, 1101, 1110, 1111, 0011, 0111, 1001, 10100, 11010, 11100]</t>
         </is>
       </c>
     </row>
@@ -9745,7 +9763,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000],negative example:[02, 20]</t>
+          <t>positive example:[0, 00, 000], negative example:[1, 01, 10]</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9780,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 01010, 0110, 1, 1001, 101, 10101, 1011, 101101, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 01010, 0110, 1, 1001, 101, 10101, 1011, 101101, 11, 1101],negative example:[01,10]</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9797,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, aaaa, ab, b, ba],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, aaaa, ab, b, ba], negative example:[bb, bbb, aba, baa, aab]</t>
         </is>
       </c>
     </row>
@@ -9796,7 +9814,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aab, aaba, aabaaaba, aba, baba],negative example:[aabaa]</t>
+          <t>positive example: [, aaaba, aab, aaba, aabaaaba, aba, baba], negative example: [aabaa]</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9831,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 1, 111, 11111],negative example:[]</t>
+          <t>positive example:[0, 00, 1, 111, 11111], negative example:[01, 011, 10, 110, 1110]</t>
         </is>
       </c>
     </row>
@@ -9830,7 +9848,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>positive example:[abaabbb, baab, baabbb, bbaaabb, bbaabaabbb, bbaabb, bbaabba, bbaabbb, bbaabbbb, bbbaabbb],negative example:[bbaabbc, bbaacbb, bbbb, cbaabbb]</t>
+          <t>positive example:[abaabbb, baab, baabbb, bbaaabb, bbaabaabbb, bbaabb, bbaabba, bbaabbb, bbaabbbb, bbbaabbb],negative example:[bbbb]</t>
         </is>
       </c>
     </row>
@@ -9847,7 +9865,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, baa, baaa, baaaa, baaabaaa, baabaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[, a, aaa, baa, baaa, baaaa, baaabaaa, baabaaa, bbaaa],negative example:[b, bb, bbb, ab, aba, abab, aab, aabb, baba]</t>
         </is>
       </c>
     </row>
@@ -9864,7 +9882,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9899,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>positive example:[aababbbabba, abaabbbabba, abababba, ababba, ababbbaa, ababbbaabba, ababbbabb, ababbbabba, ababbbabbaa, ababbbabbbabba, ababbbabbbba, ababbbbba, ababbbbbabba, abbbbabba, b, babbbabba],negative example:[]</t>
+          <t>positive example:[aababbbabba, abaabbbabba, abababba, ababba, ababbbaa, ababbbaabba, ababbbabb, ababbbabba, ababbbabbaa, ababbbabbbabba, ababbbabbbba, ababbbbba, ababbbbbabba, abbbbabba, b, babbbabba],negative example:[aaab, ababab, abababa, abababab, ababababba, abababb, abababbaa, ababbabba, abba, abbabba, abbb, abbbab, abbbaba, abbbababba, abbbba]</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9916,8 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 001010, 00101010, 010010, 01001010, 0101, 01010, 010100, 01010010, 010101, 0101010, 01010100, 01010100101010, 010110, 0101101010, 0110, 011010, 1010, 101010, 11],negative example:[]</t>
+          <t>positive example:["", "0010", "001010", "00101010", "010010", "01001010", "0101", "01010", "010100", "01010010", "010101", "0101010", "01010100", "01010100101010", "010110", "0101101010", "0110", "011010", "1010", "101010", "11"],  
+negative example:["0", "1", "00", "01", "10", "000", "001", "011", "100", "110", "111", "0000", "0011", "0100", "0111", "1000", "1011", "1100", "1101", "1110", "1111"]</t>
         </is>
       </c>
     </row>
@@ -9915,7 +9934,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 001010, 010010, 0101, 01010, 010100, 010101010, 010110, 0110, 011010, 1010],negative example:[0010, 0100]</t>
+          <t>positive example:[, 0, 001010, 010010, 0101, 01010, 010100, 010101010, 010110, 0110, 011010, 1010],negative example:[0010,0100]</t>
         </is>
       </c>
     </row>
@@ -9932,7 +9951,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aabababaa, abaa, abaababaa, ababaabaa, ababa, abababaa, abababaaa, abababababaa, ababbaa, abbabaa, b, bababaa],negative example:[]</t>
+          <t>positive example: [a, aa, aabababaa, abaa, abaababaa, ababaabaa, abababa, abababaa, abababaaa, abababababaa, ababbaa, abbabaa, b, bababaa], negative example: [ab, ba, aab, bba, aaba, abba, baba, aaab, abab, baaa, aabb, abbb, babb, bbba]</t>
         </is>
       </c>
     </row>
@@ -9949,7 +9968,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>positive example: [, a, b, ba, baa, baba, bb, bba], negative example: []</t>
+          <t>positive example: ["", "a", "b", "ba", "baa", "baba", "bb", "bba"], negative example: ["ab", "aaab", "babaa", "aabab", "bbab"]</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9985,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>positive example:[, aaabaaab, aaabaab, aab, aabaaab, abaab, aabaabaab, aabab, aabbab, abaaab, abaab, babaaab, babaab],negative example:[]</t>
+          <t>positive example: [, aaabaaab, aaabaab, aab, aabaaab, aabaab, aabaabaab, aabab, aabbab, abaaab, abaab, babaaab, babaab], negative example: [aa, bb, aaa, bbb, abba, baba, abab, babb, abaaa, bbaaa]</t>
         </is>
       </c>
     </row>
@@ -9983,7 +10002,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>positive example:[a, aab, ab, b],negative example:[]</t>
+          <t>positive example:[a, aab, ab, b], negative example:[aa, bb, ba, aaa]</t>
         </is>
       </c>
     </row>
@@ -10000,7 +10019,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b", "bb", "ab", "ba", "bbb", "aab", "bba"], negative example:["c", "ac", "ca", "abc", "bac", "abac", "aabbc"]</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10036,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abb, abbab, abbabab, b, ba],negative example:[]</t>
+          <t>positive example: [aaba, ab, aba, abaa, abb, abbab, abbabab, b, ba], negative example: [aa, aab, aabaa, aabba, abaaa, abbaa, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10053,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, bab, bb],negative example:[]</t>
+          <t>positive example:[aaab, aab, ab, bab, bb],negative example:[a, b, ba, aaa, bba]</t>
         </is>
       </c>
     </row>
@@ -10051,7 +10070,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>positive example:["", "aaab", "baaa", "baaaaab", "baaaab", "baaab", "baaabb", "baaabbaaab", "baab", "bab", "bbaaab"],negative example:[]</t>
+          <t>positive example: [, aaab, baaa, baaaaab, baaaab, baaab, baaabb, baaabbaaab, baab, bab, bbaaab], negative example: [abab, aaba, baba, abba, aaabb, bbaa, ababab, aabba, baaba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -10085,7 +10104,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, b, ba, baaba, baba, bba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, b, ba, baaba, baba, bba],negative example:[aa, aab, bb, bbb, a, abab, abba, baa]</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10121,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10155,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aab, aaba, aabaaaba, aba, baaba, bab, baba, bba],negative example:[aabaa, babaa]</t>
+          <t>positive example:[, aaaba, aab, aaba, aabaaaba, aba, baaba, bab, baba, bba],negative example:[aabaa,babaa]</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10172,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaaba, aab, aaba, aabaaaba, aabaab, ab, aba, bab, baba],negative example:[]</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, aabaab, ab, aba, bab, baba], negative example: [aa, aaa, aabb, abab, abb, ba, baa, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10206,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>positive example:[aabbaa, aba, abaa, abba, abbaa, abbaaa, abbabaa, b, bbaa],negative example:[]</t>
+          <t>positive example: [aabbaa, aba, abaa, abba, abbaa, abbaaa, abbabaa, b, bbaa], negative example: [aa, a, ba, bab, baba, babb, bb, bbb]</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10223,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 00010, 0010, 00100010, 001010, 010, 101, 11, 1101, 110101, 11101],negative example: []</t>
+          <t>positive example: [, 00, 00010, 0010, 00100010, 001010, 010, 101, 11, 1101, 110101, 11101], negative example: [0, 1, 01, 10, 0001, 0110, 1001, 1100, 1110, 00011, 01010, 10101]</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10240,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>positive example:["", "00010", "0010", "010", "10", "100", "10010", "101", "1010", "10100", "101010", "10101010", "1011", "10110", "10111", "110", "11010"],negative example:[]</t>
+          <t>positive example:["", "00010", "0010", "010", "10", "100", "10010", "101", "1010", "10100", "101010", "10101010", "1011", "10110", "10111", "110", "11010"], negative example:["2", "a", "01a", "1102", "101a1"]</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10257,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10274,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 0000],negative example:[002, 020, 200]</t>
+          <t>positive example:[00, 000, 0000],negative example:[0, 1, 01, 10, 11, 111]</t>
         </is>
       </c>
     </row>
@@ -10272,7 +10291,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "00010100", "00100", "00100100", "001010", "0010100", "00101000", "0010101", "001100", "0011100", "01000010", "0100010", "010010", "01010", "010100", "0101010", "01011010", "0110", "1", "1001", "1010100", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "00010100", "00100", "00100100", "001010", "0010100", "00101000", "0010101", "001100", "0011100", "01000010", "0100010", "010010", "01010", "010100", "0101010", "01011010", "0110", "1", "1001", "1010100", "11"], negative example:["01", "10", "011", "110", "0101", "1010", "0011", "1100", "000111", "111000", "010101", "101010", "00110011", "11001100"]</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10308,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, aabaa, abaa, abaabaa, abbaa, baa, bbaa],negative example:[]</t>
+          <t>positive example: [, a, aaa, aabaa, abaa, abaabaa, abbaa, baa, bbaa], negative example: [aaab, abab, baba, bbaba, ab, bb, b, bab]</t>
         </is>
       </c>
     </row>
@@ -10306,7 +10325,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>positive example:[aabbaaabb, abaaabb, ababb, abbaaaabb, abbaaab, abbaaababbaaabb, abbaaabb, abbaaabbb, abbaabaaabb, abbaabb, abbbaaabb, b, bbaaabb],negative example:[]</t>
+          <t>positive example: [aabbaaabb, abaaabb, ababb, abbaaaabb, abbaaab, abbaaababbaaabb, abbaaabb, abbaaabbb, abbaabaaabb, abbaabb, abbbaaabb, b, bbaaabb], negative example: [aa, aab, aaba, ab, aba, abaa, abab, abba, abbaa, abbaaa, abbaab, abbab, abbb, ba, baa, baaa, baba, babb, bba, bbaa, bbaaa, bbaab, bbab, bbb]</t>
         </is>
       </c>
     </row>
@@ -10323,7 +10342,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaa, baaa, baaaa, baaaaa, babaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [a, aaa, aaaa, baaa, baaaa, baaaaa, babaaaa, bbaaaa], negative example: [b, bb, bbb, ab, aab, ba, baba, bba]</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10359,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ab, aba, b, ba],negative example:[]</t>
+          <t>positive example:[, a, aa, ab, aba, b, ba], negative example:[bb, aab, bab, baa, abb]</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10376,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bab],negative example:[]</t>
+          <t>positive example: [, a, aa, b, bab], negative example: [ab, ba, bb, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10393,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, b, bab],negative example:[]</t>
+          <t>positive example:[a, aa, b, bab], negative example:[ab, ba, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10410,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>positive example:[, aabbabba, ab, abaaabbabba, abaabbabba, abaabbabbaaabbabba, abaabbabbba, abaabbbabba, ababaabbabba, baaabbabba],negative example:[abaababba, abaabbaba, ababbabba]</t>
+          <t>positive example: [, aabbabba, ab, abaaabbabba, abaabbabba, abaabbabbaaabbabba, abaabbabbba, abaabbbabba, ababaabbabba, baaabbabba], negative example: [abaababba, abaabbaba, ababbabba]</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10427,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, bab],negative example:[]</t>
+          <t>positive example:[aaab, aab, ab, bab], negative example:[a, b, aa, bb, baa]</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10444,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaa, aaaa, aaaaa, aaab, b, baaa, bb],negative example:[]</t>
+          <t>positive example: [, aa, aaa, aaaa, aaaaa, aaab, b, baaa, bb], negative example: [a, ab, ba, bba, aba, bab, bbb, aab]</t>
         </is>
       </c>
     </row>
@@ -10442,7 +10461,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, baaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, baaaa, baaaaa, bbaaaa], negative example: [a, b, aa, ab, ba, bb, aba, abb, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10478,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, abb, abbb],negative example:[acb]</t>
+          <t>positive example:[aab, ab, abb, abbb], negative example:[a, b, aa, bb]</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10495,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>positive example:[, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 1010],negative example:[]</t>
+          <t>positive example:[, 001010, 0100, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 1010],negative example:[1, 0, 01, 10, 011, 100, 101, 110, 111, 0001]</t>
         </is>
       </c>
     </row>
@@ -10493,7 +10512,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>positive example: [, a, aaa, aaaaa, aab, ab, aba, ababba, abba, abbaabba, abbaba, b, ba, baa, bba], negative example: []</t>
+          <t>positive example: [, a, aaa, aaaaa, aab, ab, aba, ababba, abba, abbaabba, abbaba, b, ba, baa, bba], negative example: [abab, ababa, ababb, abb, abbb, baaa, bab, baba, babb, bbb]</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10529,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>positive example: [aabaaab, abaaa, abaaaab, abaaab, abaaabb, abaab, abaabb, ba, baaab, bbaaab], negative example: []</t>
+          <t>positive example:[aabaaab, abaaa, abaaaab, abaaab, abaaabb, abaab, abaabb, ba, baaab, bbaaab],negative example:[a, b, aa, ab, bb, aaa, aab, abb, bbb, abab]</t>
         </is>
       </c>
     </row>
@@ -10544,7 +10563,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "000", "0000", "010", "1", "1001", "101", "11", "111"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "000", "0000", "010", "1", "1001", "101", "11", "111"], negative example:["01", "10", "001", "011", "100", "110", "0101", "1010"]</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10597,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 0000, 010, 1001, 101, 101101, 11, 111],negative example:[]</t>
+          <t>positive example:[00, 000, 0000, 010, 1001, 101, 101101, 11, 111],negative example:[0, 1, 01, 10, 011, 110, 0101, 1010]</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10614,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba, baaa], negative example: []</t>
+          <t>positive example: [, aa, ab, abaa, abaaaa, abab, ababaa, abba, baaa], negative example: [a, b, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10631,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>positive example:[aaaaba, aaab, aaaba, aaabaa, aaabb, aaba, aabba, ab, baaba],negative example:[]</t>
+          <t>positive example: [aaaaba, aaab, aaaba, aaabaa, aaabb, aaba, aabba, ab, baaba], negative example: [a, b, aa, bb, aaa, bbb, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10648,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, aaaaa, baaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, aaaaa, baaa], negative example:[a, b, ab, ba, bba]</t>
         </is>
       </c>
     </row>
@@ -10646,7 +10665,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, baaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, baaa], negative example:[aa, aab, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -10663,7 +10682,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aaaaaa, aabb, abaa, baaa, bbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, aaaaaa, aabb, abaa, baaa, bbaa], negative example: [a, b, ab, ba, aba, bab, abb, bba]</t>
         </is>
       </c>
     </row>
@@ -10680,7 +10699,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>positive example:[a, aab, ab, b],negative example:[]</t>
+          <t>positive example:[a, aab, ab, b],negative example:[aa, bb, ba, aaa]</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10716,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ab, b, ba],negative example:[]</t>
+          <t>positive example:[, a, aa, ab, b, ba], negative example:[bb, aab, aba, baa, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -10714,7 +10733,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000, 0000],negative example:[002, 020, 200]</t>
+          <t>positive example:[0, 00, 000, 0000], negative example:[1, 01, 10, 11]</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10750,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[2, 01a, a, 10b]</t>
         </is>
       </c>
     </row>
@@ -10748,7 +10767,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "001", "01", "011", "1", "11"],negative example:[]</t>
+          <t>positive example: [, 0, 001, 01, 011, 1, 11], negative example: [2, 10, 010, 101, 0002, 1110]</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10784,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>positive example:[, aabb, ab, abab, ba, bbaa],negative example:[]</t>
+          <t>positive example: [, aabb, ab, abab, ba, bbaa], negative example: [a, b, aa, bb, aba, bba, aab, bbb, aaa, baba]</t>
         </is>
       </c>
     </row>
@@ -10782,7 +10801,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaaba, aaba, aabaaba, aba, abaaba, ababa, baaba, baba],negative example:[]</t>
+          <t>positive example:[, a, aaaba, aaba, aabaaba, aba, abaaba, ababa, baaba, baba],negative example:[b, bb, bab, abab, baa, aab, abaa, bba, aaab, abba]</t>
         </is>
       </c>
     </row>
@@ -10799,7 +10818,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, baaaa], negative example: [a, b, aa, ab, ba, bb, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -10816,7 +10835,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>positive example:[, aabbbbaabaab, ab, abaabbbbaaabaab, abaabbbbaabaaab, abaabbbbaabaab, abaabbbbaabaabaabbbbaabaab, abaabbbbbaabaab, ababaabbbbaabaab, baaabbbbaabaab],negative example:[abaabbbaabaab, abaabbbbaabab, abaabbbbabaab]</t>
+          <t>positive example: [, aabbbbaabaab, ab, abaabbbbaaabaab, abaabbbbaabaaab, abaabbbbaabaab, abaabbbbaabaabaabbbbaabaab, abaabbbbbaabaab, ababaabbbbaabaab, baaabbbbaabaab], negative example: [abaabbbaabaab, abaabbbbaabab, abaabbbbabaab]</t>
         </is>
       </c>
     </row>
@@ -10833,7 +10852,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, abaa, ababaa, baaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: []</t>
+          <t>positive example: [, aa, aaaa, abaa, ababaa, baaa, bb, bbaa, bbaaaa, bbab, bbba, bbbb, bbbbaa], negative example: [a, b, aba, abb, bab, baaab, ababab, babaab, abba, abbb, baab, babb]</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10869,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "000", "0000", "010"],negative example:[]</t>
+          <t>positive example:[, 00, 000, 0000, 010], negative example:[0, 1, 01, 10, 11]</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10886,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, ba, baa, bba], negative example: []</t>
+          <t>positive example:[, a, aa, b, ba, baa, bba], negative example:[ab, aba, abb, aab, baba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10920,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aabbab, ab, abbaab, abbab, abbabbab, abbb, b, bb, bbab, bbb],negative example:[]</t>
+          <t>positive example: [, a, aa, aabbab, ab, abbaab, abbab, abbabbab, abbb, b, bb, bbab, bbb], negative example: [ba, aba, baa, aab, baba, abab, bbba, aaab]</t>
         </is>
       </c>
     </row>
@@ -10918,7 +10937,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ab, abab, ba, baba, bb, bbbb],negative example:[]</t>
+          <t>positive example: ["", "aa", "aaaa", "ab", "abab", "ba", "baba", "bb", "bbbb"], negative example: ["a", "b", "aba", "abb", "baa", "bab", "aab", "bba"]</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10954,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaba, ab, aba, abaa, abaaba, abba, ba],negative example:[]</t>
+          <t>positive example: [, a, aa, aaba, ab, aba, abaa, abaaba, abba, ba], negative example: [b, bb, bab, baba, baaab, aabab, abab, aabbaa, baaaab, ababab]</t>
         </is>
       </c>
     </row>
@@ -10952,7 +10971,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 011, 1010, 1011, 11, 111, 1111],negative example:[0, 0000]</t>
+          <t>positive example:[00, 000, 011, 1010, 1011, 11, 111, 1111], negative example:[0, 0000]</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10988,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b],negative example:[]</t>
+          <t>positive example:[aab, ab, b], negative example:[aa, a, ba]</t>
         </is>
       </c>
     </row>
@@ -11003,7 +11022,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, abab],negative example:[, b]</t>
+          <t>positive example:[aab, ab, abab],negative example:[,b]</t>
         </is>
       </c>
     </row>
@@ -11020,7 +11039,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aab, aaba, aabaaaba, aba, baba],negative example:[aabaa]</t>
+          <t>positive example: [, aaaba, aab, aaba, aabaaaba, aba, baba], negative example: [aabaa]</t>
         </is>
       </c>
     </row>
@@ -11037,7 +11056,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 00100, 010, 0100, 01000, 01000100, 010100, 01100, 10011, 101, 101011, 1011, 10111, 10111011, 11, 11011, 111],negative example:[011, 100]</t>
+          <t>positive example: [, 00, 000, 00100, 010, 0100, 01000, 01000100, 010100, 01100, 10011, 101, 101011, 1011, 10111, 10111011, 11, 11011, 111], negative example: [011, 100]</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11073,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 01, 1, 10],negative example:[]</t>
+          <t>positive example:["", "0", "00", "01", "1", "10"], negative example:["2", "11", "0001", "1010", "0110"]</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11090,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>positive example:[aabbb, ab, aba, abaa, abb, abbb, abbbb, abbbbb, b, bbb],negative example:[]</t>
+          <t>positive example:[aabbb, ab, aba, abaa, abb, abbb, abbbb, abbbbb, b, bbb],negative example:[aa, aaaa, ba, baba, bba, bbba, bbbba, bbbbbba, abab, abba]</t>
         </is>
       </c>
     </row>
@@ -11122,7 +11141,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>positive example:[aabaaab, abaaaab, abaaaabaaab, abaaab, abaab, abaabb, b, baaab, bbaaab],negative example:[]</t>
+          <t>positive example:[aabaaab, abaaaab, abaaaabaaab, abaaab, abaab, abaabb, b, baaab, bbaaab],negative example:[aa, ab, aaba, abba, baaa, baba, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11158,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 00010, 0010, 00100, 001010, 00110, 010, 1, 10011, 101, 101011, 1011, 10111, 11, 11011, 111], negative example: [001, 011]</t>
+          <t>positive example:[, 0, 00, 000, 00010, 0010, 00100, 001010, 00110, 010, 1, 10011, 101, 101011, 1011, 10111, 11, 11011, 111],negative example:[001,011]</t>
         </is>
       </c>
     </row>
@@ -11156,7 +11175,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, abb, b, bab],negative example:[]</t>
+          <t>positive example: [aaab, aab, ab, abb, b, bab], negative example: [aaa, aaba, aba, bba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11192,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -11190,7 +11209,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>positive example:['', 'a', 'aa', 'b', 'bb'],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -11207,7 +11226,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>positive example:[, a, aabaa, abaa, abaabaa, baa, bbaa],negative example:[]</t>
+          <t>positive example:[, a, aabaa, abaa, abaabaa, baa, bbaa], negative example:[ba, ab, aaba, bb, baaa, abab]</t>
         </is>
       </c>
     </row>
@@ -11224,7 +11243,8 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 001, 00101, 010, 01001, 0101, 01011, 0101101, 011, 01101, 1, 100, 10010, 101, 1010, 10100, 1010010, 10110, 110, 11010], negative example: []</t>
+          <t>positive example:["", "0", "001", "00101", "010", "01001", "0101", "01011", "0101101", "011", "01101", "1", "100", "10010", "101", "1010", "10100", "1010010", "10110", "110", "11010"],  
+negative example:[]</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11261,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ab, ba, bb],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, ba, bb], negative example: [a, b, aab, aba, abb, baa, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11278,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, b], negative example:[ab, ba, bb, aab, aba]</t>
         </is>
       </c>
     </row>
@@ -11275,7 +11295,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101],negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101], negative example: [001, 011, 100, 110, 0101, 1010, 1100, 0011]</t>
         </is>
       </c>
     </row>
@@ -11292,7 +11312,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aab, aaba, aba, abaa, abaaa, abab, abb, abba, bba, bbaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aab, aaba, aba, abaa, abaaa, abab, abb, abba, bba, bbaa], negative example:[aa, ab, ba, bb, b, a, bbb, aabab, baba, babaa]</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11329,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>positive example:[, aaabaaaba, aaba, aabaa, aabaaaaba, aabaaab, aabaaaba, aabaaabaa, aabaaabaaaba, aabaaabaaba, aabaaba, aabababa, abaaaba, babaaaba],negative example:[]</t>
+          <t>positive example:[, aaabaaaba, aaba, aabaa, aabaaaaba, aabaaab, aabaaaba, aabaaabaa, aabaaabaaaba, aabaaabaaba, aabaaba, aabababa, abaaaba, babaaaba],negative example:[a, b, aa, ab, ba, bb, aaa, aab, aba, abb, baa, bab, bba, bbb, aaaa, aaab, aaba, aabb, abaa, abab, abba, abbb, baaa, baab, baba, babb, bbaa, bbab, bbba, bbbb]</t>
         </is>
       </c>
     </row>
